--- a/AS4100 Modules/Verification/Excel/AS4100_7 Verification.xlsx
+++ b/AS4100 Modules/Verification/Excel/AS4100_7 Verification.xlsx
@@ -9,36 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Nt_yield, Nt_ultimate" sheetId="10" r:id="rId1"/>
     <sheet name="Area_Reqd" sheetId="11" r:id="rId2"/>
+    <sheet name="AS4100 7_5 Methods" sheetId="12" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="A_" localSheetId="1">#REF!</definedName>
-    <definedName name="A_">#REF!</definedName>
-    <definedName name="E_" localSheetId="1">#REF!</definedName>
-    <definedName name="E_">#REF!</definedName>
-    <definedName name="G_" localSheetId="1">#REF!</definedName>
-    <definedName name="G_">#REF!</definedName>
-    <definedName name="I_w" localSheetId="1">#REF!</definedName>
-    <definedName name="I_w">#REF!</definedName>
-    <definedName name="J_" localSheetId="1">#REF!</definedName>
-    <definedName name="J_">#REF!</definedName>
-    <definedName name="l_ez" localSheetId="1">#REF!</definedName>
-    <definedName name="l_ez">#REF!</definedName>
-    <definedName name="r_ol" localSheetId="1">#REF!</definedName>
-    <definedName name="r_ol">#REF!</definedName>
-    <definedName name="r_x" localSheetId="1">#REF!</definedName>
-    <definedName name="r_x">#REF!</definedName>
-    <definedName name="r_y" localSheetId="1">#REF!</definedName>
-    <definedName name="r_y">#REF!</definedName>
-    <definedName name="x_o" localSheetId="1">#REF!</definedName>
-    <definedName name="x_o">#REF!</definedName>
-    <definedName name="y_o" localSheetId="1">#REF!</definedName>
-    <definedName name="y_o">#REF!</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
   <si>
     <t>Section</t>
   </si>
@@ -519,18 +496,71 @@
       <t>t</t>
     </r>
   </si>
+  <si>
+    <t>safety_factor_thickness</t>
+  </si>
+  <si>
+    <t>safety_factor_beyond</t>
+  </si>
+  <si>
+    <t>safety_factor_perpendicular</t>
+  </si>
+  <si>
+    <t>Area_Reqd</t>
+  </si>
+  <si>
+    <t>a_e_perp</t>
+  </si>
+  <si>
+    <t>t_min</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>beyond</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>perp</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000&quot; m²&quot;"/>
     <numFmt numFmtId="166" formatCode="##0E+00&quot; Pa&quot;"/>
     <numFmt numFmtId="167" formatCode="##0.00E+00&quot; N&quot;"/>
     <numFmt numFmtId="168" formatCode="##0.00000E+00&quot; N&quot;"/>
     <numFmt numFmtId="169" formatCode="##0.00000E+00&quot; m²&quot;"/>
+    <numFmt numFmtId="171" formatCode="##0.00000E+00&quot; m&quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -619,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -639,11 +669,13 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="44">
     <dxf>
       <font>
         <b val="0"/>
@@ -661,7 +693,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="##0.00E+00&quot; N&quot;"/>
+      <numFmt numFmtId="169" formatCode="##0.00000E+00&quot; m²&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="##0.00000E+00&quot; m²&quot;"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -686,13 +743,180 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="##0.00E+00&quot; N&quot;"/>
+      <numFmt numFmtId="169" formatCode="##0.00000E+00&quot; m²&quot;"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="##0.00000E+00&quot; m²&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="171" formatCode="##0.00000E+00&quot; m&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1153,6 +1377,56 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="167" formatCode="##0.00E+00&quot; N&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="##0.00E+00&quot; N&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
@@ -1447,9 +1721,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="tblIntegral" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="33"/>
-      <tableStyleElement type="headerRow" dxfId="32"/>
-      <tableStyleElement type="secondRowStripe" dxfId="31"/>
+      <tableStyleElement type="wholeTable" dxfId="43"/>
+      <tableStyleElement type="headerRow" dxfId="42"/>
+      <tableStyleElement type="secondRowStripe" dxfId="41"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1470,41 +1744,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblCapacity" displayName="tblCapacity" ref="B2:P83" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblCapacity" displayName="tblCapacity" ref="B2:P83" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="B2:P83"/>
   <sortState ref="B5:L83">
     <sortCondition ref="B2:B83"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" name="Section" dataDxfId="28"/>
-    <tableColumn id="2" name="Ag" dataDxfId="27"/>
-    <tableColumn id="3" name="Reduction for Net Area" dataDxfId="26"/>
-    <tableColumn id="4" name="An" dataDxfId="25">
+    <tableColumn id="1" name="Section" dataDxfId="38"/>
+    <tableColumn id="2" name="Ag" dataDxfId="37"/>
+    <tableColumn id="3" name="Reduction for Net Area" dataDxfId="36"/>
+    <tableColumn id="4" name="An" dataDxfId="35">
       <calculatedColumnFormula>tblCapacity[[#This Row],[Ag]]*(1-tblCapacity[[#This Row],[Reduction for Net Area]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="kt" dataDxfId="24"/>
-    <tableColumn id="13" name="fy" dataDxfId="23"/>
-    <tableColumn id="20" name="fu" dataDxfId="22"/>
-    <tableColumn id="14" name="Ultimate Uncertainty" dataDxfId="21">
+    <tableColumn id="5" name="kt" dataDxfId="34"/>
+    <tableColumn id="13" name="fy" dataDxfId="33"/>
+    <tableColumn id="20" name="fu" dataDxfId="32"/>
+    <tableColumn id="14" name="Ultimate Uncertainty" dataDxfId="31">
       <calculatedColumnFormula>0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="φ" dataDxfId="20"/>
-    <tableColumn id="19" name="Nt_yield" dataDxfId="19">
+    <tableColumn id="6" name="φ" dataDxfId="30"/>
+    <tableColumn id="19" name="Nt_yield" dataDxfId="29">
       <calculatedColumnFormula>tblCapacity[[#This Row],[Ag]]*tblCapacity[[#This Row],[fy]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Nt_ultimate" dataDxfId="18">
+    <tableColumn id="21" name="Nt_ultimate" dataDxfId="28">
       <calculatedColumnFormula>tblCapacity[[#This Row],[Ultimate Uncertainty]]*tblCapacity[[#This Row],[kt]]*tblCapacity[[#This Row],[An]]*tblCapacity[[#This Row],[fu]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Nt" dataDxfId="0">
+    <tableColumn id="22" name="Nt" dataDxfId="27">
       <calculatedColumnFormula>MIN(tblCapacity[[#This Row],[Nt_yield]:[Nt_ultimate]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="φNt_yield" dataDxfId="1">
+    <tableColumn id="7" name="φNt_yield" dataDxfId="26">
       <calculatedColumnFormula>tblCapacity[[#This Row],[Nt_yield]]*tblCapacity[[#This Row],[φ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="φNt_ultimate" dataDxfId="17">
+    <tableColumn id="8" name="φNt_ultimate" dataDxfId="25">
       <calculatedColumnFormula>tblCapacity[[#This Row],[Nt_ultimate]]*tblCapacity[[#This Row],[φ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="φNt" dataDxfId="16">
+    <tableColumn id="9" name="φNt" dataDxfId="24">
       <calculatedColumnFormula>tblCapacity[[#This Row],[Nt]]*tblCapacity[[#This Row],[φ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1513,39 +1787,65 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblArea" displayName="tblArea" ref="B2:M83" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblArea" displayName="tblArea" ref="B2:M83" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="B2:M83"/>
   <sortState ref="B3:I81">
     <sortCondition ref="B2:B83"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="Force" dataDxfId="13">
-      <calculatedColumnFormula>RANDBETWEEN(100,100000000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" name="kt" dataDxfId="12"/>
-    <tableColumn id="3" name="fy" dataDxfId="11"/>
-    <tableColumn id="4" name="fu" dataDxfId="10"/>
-    <tableColumn id="5" name="Ultimate Uncertainty" dataDxfId="9">
+    <tableColumn id="1" name="Force" dataDxfId="21"/>
+    <tableColumn id="2" name="kt" dataDxfId="20"/>
+    <tableColumn id="3" name="fy" dataDxfId="19"/>
+    <tableColumn id="4" name="fu" dataDxfId="18"/>
+    <tableColumn id="5" name="Ultimate Uncertainty" dataDxfId="17">
       <calculatedColumnFormula>0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="φ" dataDxfId="8"/>
-    <tableColumn id="19" name="Ag" dataDxfId="7">
+    <tableColumn id="13" name="φ" dataDxfId="16"/>
+    <tableColumn id="19" name="Ag" dataDxfId="15">
       <calculatedColumnFormula>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="An" dataDxfId="6">
+    <tableColumn id="21" name="An" dataDxfId="14">
       <calculatedColumnFormula>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="A" dataDxfId="5">
+    <tableColumn id="22" name="A" dataDxfId="13">
       <calculatedColumnFormula>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="φAg" dataDxfId="4">
+    <tableColumn id="6" name="φAg" dataDxfId="12">
       <calculatedColumnFormula>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="φAn" dataDxfId="3">
+    <tableColumn id="7" name="φAn" dataDxfId="11">
       <calculatedColumnFormula>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="φA" dataDxfId="2">
+    <tableColumn id="8" name="φA" dataDxfId="10">
       <calculatedColumnFormula>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="tblIntegral" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tbl7_5" displayName="tbl7_5" ref="B2:I83" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B2:I83"/>
+  <sortState ref="B3:H81">
+    <sortCondition ref="B2:B83"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" name="a_e_perp" dataDxfId="7"/>
+    <tableColumn id="2" name="Area_Reqd" dataDxfId="0"/>
+    <tableColumn id="3" name="safety_factor_thickness" dataDxfId="6"/>
+    <tableColumn id="4" name="safety_factor_beyond" dataDxfId="4"/>
+    <tableColumn id="5" name="safety_factor_perpendicular" dataDxfId="5">
+      <calculatedColumnFormula>0.85</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="t_min" dataDxfId="3">
+      <calculatedColumnFormula>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="Abeyond" dataDxfId="2">
+      <calculatedColumnFormula>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="Aperp" dataDxfId="1">
+      <calculatedColumnFormula>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="tblIntegral" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1851,7 +2151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -6729,8 +7029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M110"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G83"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6786,8 +7086,7 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="15">
-        <f t="shared" ref="B3:B34" ca="1" si="0">RANDBETWEEN(100,100000000)</f>
-        <v>92281260</v>
+        <v>92625090</v>
       </c>
       <c r="C3" s="1">
         <v>0.85</v>
@@ -6799,41 +7098,40 @@
         <v>440000000</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F66" si="1">0.85</f>
+        <f t="shared" ref="F3:F66" si="0">0.85</f>
         <v>0.85</v>
       </c>
       <c r="G3" s="14">
         <v>0.9</v>
       </c>
       <c r="H3" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.30760419999999999</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.30875029999999998</v>
       </c>
       <c r="I3" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.29028392576281853</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.29136549229317399</v>
       </c>
       <c r="J3" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.30760419999999999</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.30875029999999998</v>
       </c>
       <c r="K3" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.34178244444444444</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.34305588888888888</v>
       </c>
       <c r="L3" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.32253769529202059</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.32373943588130444</v>
       </c>
       <c r="M3" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.34178244444444444</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.34305588888888888</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>89249954</v>
+        <v>39299303</v>
       </c>
       <c r="C4" s="1">
         <v>0.75</v>
@@ -6845,41 +7143,40 @@
         <v>440000000</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G4" s="14">
         <v>0.9</v>
       </c>
       <c r="H4" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.27890610625000001</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.122810321875</v>
       </c>
       <c r="I4" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.31818165418894834</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.14010446702317292</v>
       </c>
       <c r="J4" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.31818165418894834</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.14010446702317292</v>
       </c>
       <c r="K4" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.30989567361111109</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.13645591319444444</v>
       </c>
       <c r="L4" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.35353517132105372</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.15567163002574769</v>
       </c>
       <c r="M4" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.35353517132105372</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.15567163002574769</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>3797563</v>
+        <v>45828445</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -6891,41 +7188,40 @@
         <v>430000000</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G5" s="14">
         <v>0.9</v>
       </c>
       <c r="H5" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>1.3562724999999999E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.16367301785714286</v>
       </c>
       <c r="I5" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>1.0390049247606019E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.12538562243502052</v>
       </c>
       <c r="J5" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>1.3562724999999999E-2</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.16367301785714286</v>
       </c>
       <c r="K5" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>1.5069694444444443E-2</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.18185890873015872</v>
       </c>
       <c r="L5" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>1.1544499164006688E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.13931735826113392</v>
       </c>
       <c r="M5" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>1.5069694444444443E-2</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.18185890873015872</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>11724509</v>
+        <v>84881722</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -6937,41 +7233,40 @@
         <v>480000000</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G6" s="14">
         <v>0.9</v>
       </c>
       <c r="H6" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>3.2568080555555552E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.23578256111111112</v>
       </c>
       <c r="I6" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>2.8736541666666667E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.2080434362745098</v>
       </c>
       <c r="J6" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>3.2568080555555552E-2</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.23578256111111112</v>
       </c>
       <c r="K6" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>3.61867561728395E-2</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.26198062345679013</v>
       </c>
       <c r="L6" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>3.1929490740740737E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.23115937363834421</v>
       </c>
       <c r="M6" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>3.61867561728395E-2</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.26198062345679013</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>24225814</v>
+        <v>70615683</v>
       </c>
       <c r="C7" s="1">
         <v>0.85</v>
@@ -6983,41 +7278,40 @@
         <v>440000000</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G7" s="14">
         <v>0.9</v>
       </c>
       <c r="H7" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>7.5705668749999996E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.22067400937500001</v>
       </c>
       <c r="I7" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>7.6205769109782953E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.22213174897766597</v>
       </c>
       <c r="J7" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>7.6205769109782953E-2</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.22213174897766597</v>
       </c>
       <c r="K7" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>8.4117409722222217E-2</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.24519334375000001</v>
       </c>
       <c r="L7" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>8.467307678864773E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.24681305441962884</v>
       </c>
       <c r="M7" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>8.467307678864773E-2</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.24681305441962884</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>65774186</v>
+        <v>51388095</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -7029,41 +7323,40 @@
         <v>430000000</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G8" s="14">
         <v>0.9</v>
       </c>
       <c r="H8" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.23490780714285714</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.1835289107142857</v>
       </c>
       <c r="I8" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.17995673324213407</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.14059670314637482</v>
       </c>
       <c r="J8" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.23490780714285714</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.1835289107142857</v>
       </c>
       <c r="K8" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.26100867460317462</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.20392101190476189</v>
       </c>
       <c r="L8" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.1999519258245934</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.15621855905152757</v>
       </c>
       <c r="M8" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.26100867460317462</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.20392101190476189</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>379744</v>
+        <v>69474711</v>
       </c>
       <c r="C9" s="1">
         <v>0.85</v>
@@ -7075,41 +7368,40 @@
         <v>440000000</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G9" s="14">
         <v>0.9</v>
       </c>
       <c r="H9" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>1.1867E-3</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.21710847187499999</v>
       </c>
       <c r="I9" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>1.1945391632588865E-3</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.21854265806857506</v>
       </c>
       <c r="J9" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>1.1945391632588865E-3</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.21854265806857506</v>
       </c>
       <c r="K9" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>1.3185555555555555E-3</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.24123163541666665</v>
       </c>
       <c r="L9" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>1.3272657369543183E-3</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.24282517563175007</v>
       </c>
       <c r="M9" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>1.3272657369543183E-3</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.24282517563175007</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>61177230</v>
+        <v>73044802</v>
       </c>
       <c r="C10" s="1">
         <v>0.75</v>
@@ -7121,41 +7413,40 @@
         <v>440000000</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G10" s="14">
         <v>0.9</v>
       </c>
       <c r="H10" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.19117884374999999</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.22826500625000001</v>
       </c>
       <c r="I10" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.21810064171122992</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.26040927629233512</v>
       </c>
       <c r="J10" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.21810064171122992</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.26040927629233512</v>
       </c>
       <c r="K10" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.21242093749999999</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.25362778472222225</v>
       </c>
       <c r="L10" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.24233404634581102</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.2893436403248168</v>
       </c>
       <c r="M10" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.24233404634581102</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.2893436403248168</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>570648</v>
+        <v>59114408</v>
       </c>
       <c r="C11" s="1">
         <v>0.75</v>
@@ -7167,41 +7458,40 @@
         <v>440000000</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G11" s="14">
         <v>0.9</v>
       </c>
       <c r="H11" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>1.90216E-3</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.19704802666666665</v>
       </c>
       <c r="I11" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>2.0343957219251334E-3</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.21074655258467026</v>
       </c>
       <c r="J11" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>2.0343957219251334E-3</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.21074655258467026</v>
       </c>
       <c r="K11" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>2.113511111111111E-3</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.21894225185185184</v>
       </c>
       <c r="L11" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>2.2604396910279258E-3</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.23416283620518918</v>
       </c>
       <c r="M11" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>2.2604396910279258E-3</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.23416283620518918</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>91917335</v>
+        <v>84483683</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -7213,41 +7503,40 @@
         <v>480000000</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G12" s="14">
         <v>0.9</v>
       </c>
       <c r="H12" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.25532593055555558</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.23467689722222224</v>
       </c>
       <c r="I12" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.22528758578431374</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.20706785049019608</v>
       </c>
       <c r="J12" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.25532593055555558</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.23467689722222224</v>
       </c>
       <c r="K12" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.28369547839506176</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.26075210802469134</v>
       </c>
       <c r="L12" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.2503195397603486</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.23007538943355119</v>
       </c>
       <c r="M12" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.28369547839506176</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.26075210802469134</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>80549110</v>
+        <v>79400954</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -7259,41 +7548,40 @@
         <v>440000000</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G13" s="14">
         <v>0.9</v>
       </c>
       <c r="H13" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.25171596875000002</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.24812798124999999</v>
       </c>
       <c r="I13" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.21537195187165775</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.21230201604278073</v>
       </c>
       <c r="J13" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.25171596875000002</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.24812798124999999</v>
       </c>
       <c r="K13" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.27968440972222225</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.27569775694444443</v>
       </c>
       <c r="L13" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.23930216874628638</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.23589112893642303</v>
       </c>
       <c r="M13" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.27968440972222225</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.27569775694444443</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>80857470</v>
+        <v>62455369</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -7305,41 +7593,40 @@
         <v>440000000</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G14" s="14">
         <v>0.9</v>
       </c>
       <c r="H14" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.25267959374999999</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.19517302812500001</v>
       </c>
       <c r="I14" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.21619644385026737</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.16699296524064172</v>
       </c>
       <c r="J14" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.25267959374999999</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.19517302812500001</v>
       </c>
       <c r="K14" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.28075510416666666</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.21685892013888888</v>
       </c>
       <c r="L14" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.24021827094474152</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.18554773915626857</v>
       </c>
       <c r="M14" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.28075510416666666</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.21685892013888888</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>29425426</v>
+        <v>42829952</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -7351,41 +7638,40 @@
         <v>440000000</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G15" s="14">
         <v>0.9</v>
       </c>
       <c r="H15" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.10509080714285714</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.1529641142857143</v>
       </c>
       <c r="I15" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>7.8677609625668457E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.11451858823529412</v>
       </c>
       <c r="J15" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.10509080714285714</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.1529641142857143</v>
       </c>
       <c r="K15" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.11676756349206348</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.16996012698412699</v>
       </c>
       <c r="L15" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>8.7419566250742722E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.12724287581699348</v>
       </c>
       <c r="M15" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.11676756349206348</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.16996012698412699</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>38405505</v>
+        <v>42349179</v>
       </c>
       <c r="C16" s="1">
         <v>0.85</v>
@@ -7397,41 +7683,40 @@
         <v>440000000</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G16" s="14">
         <v>0.9</v>
       </c>
       <c r="H16" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.120017203125</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.132341184375</v>
       </c>
       <c r="I16" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.12081001887385973</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.13321541050644858</v>
       </c>
       <c r="J16" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.12081001887385973</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.13321541050644858</v>
       </c>
       <c r="K16" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.13335244791666667</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.14704576041666667</v>
       </c>
       <c r="L16" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.13423335430428859</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.14801712278494286</v>
       </c>
       <c r="M16" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.13423335430428859</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.14801712278494286</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>88159485</v>
+        <v>20708161</v>
       </c>
       <c r="C17" s="1">
         <v>0.85</v>
@@ -7443,41 +7728,40 @@
         <v>440000000</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G17" s="14">
         <v>0.9</v>
       </c>
       <c r="H17" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.27549839062499998</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>6.4713003125000002E-2</v>
       </c>
       <c r="I17" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.27731829191569679</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>6.5140487574709027E-2</v>
       </c>
       <c r="J17" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.27731829191569679</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>6.5140487574709027E-2</v>
       </c>
       <c r="K17" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.30610932291666665</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>7.1903336805555551E-2</v>
       </c>
       <c r="L17" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.30813143546188532</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>7.2378319527454479E-2</v>
       </c>
       <c r="M17" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.30813143546188532</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>7.2378319527454479E-2</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>21359363</v>
+        <v>9839216</v>
       </c>
       <c r="C18" s="1">
         <v>0.85</v>
@@ -7489,41 +7773,40 @@
         <v>440000000</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G18" s="14">
         <v>0.9</v>
       </c>
       <c r="H18" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>7.1197876666666673E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>3.2797386666666664E-2</v>
       </c>
       <c r="I18" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>6.7188936772569999E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>3.0950663730732939E-2</v>
       </c>
       <c r="J18" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>7.1197876666666673E-2</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>3.2797386666666664E-2</v>
       </c>
       <c r="K18" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>7.9108751851851858E-2</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>3.6441540740740734E-2</v>
       </c>
       <c r="L18" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>7.4654374191744435E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>3.4389626367481045E-2</v>
       </c>
       <c r="M18" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>7.9108751851851858E-2</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>3.6441540740740734E-2</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>39120809</v>
+        <v>82210336</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -7535,41 +7818,40 @@
         <v>440000000</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G19" s="14">
         <v>0.9</v>
       </c>
       <c r="H19" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.139717175</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.29360834285714288</v>
       </c>
       <c r="I19" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.10460109358288772</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.21981373262032086</v>
       </c>
       <c r="J19" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.139717175</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.29360834285714288</v>
       </c>
       <c r="K19" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.15524130555555554</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.32623149206349206</v>
       </c>
       <c r="L19" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.11622343731431968</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.24423748068924539</v>
       </c>
       <c r="M19" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.15524130555555554</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.32623149206349206</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>98202138</v>
+        <v>25659278</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -7581,41 +7863,40 @@
         <v>480000000</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G20" s="14">
         <v>0.9</v>
       </c>
       <c r="H20" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.28882981764705884</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>7.5468464705882352E-2</v>
       </c>
       <c r="I20" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.24069151470588235</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>6.2890387254901967E-2</v>
       </c>
       <c r="J20" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.28882981764705884</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>7.5468464705882352E-2</v>
       </c>
       <c r="K20" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.32092201960784317</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>8.3853849673202613E-2</v>
       </c>
       <c r="L20" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.26743501633986927</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>6.9878208061002187E-2</v>
       </c>
       <c r="M20" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.32092201960784317</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>8.3853849673202613E-2</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>86746809</v>
+        <v>76397171</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -7627,41 +7908,40 @@
         <v>440000000</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G21" s="14">
         <v>0.9</v>
       </c>
       <c r="H21" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.28915603000000001</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.25465723666666668</v>
       </c>
       <c r="I21" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.23194333957219251</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.20427051069518717</v>
       </c>
       <c r="J21" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.28915603000000001</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.25465723666666668</v>
       </c>
       <c r="K21" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.3212844777777778</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.28295248518518518</v>
       </c>
       <c r="L21" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.25771482174688054</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.22696723410576353</v>
       </c>
       <c r="M21" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.3212844777777778</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.28295248518518518</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>34472755</v>
+        <v>59568063</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -7673,41 +7953,40 @@
         <v>480000000</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G22" s="14">
         <v>0.9</v>
       </c>
       <c r="H22" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.10139045588235295</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.17520018529411766</v>
       </c>
       <c r="I22" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>8.4492046568627452E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.14600015441176473</v>
       </c>
       <c r="J22" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.10139045588235295</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.17520018529411766</v>
       </c>
       <c r="K22" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.11265606209150326</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.1946668725490196</v>
       </c>
       <c r="L22" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>9.3880051742919385E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.16222239379084968</v>
       </c>
       <c r="M22" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.11265606209150326</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.1946668725490196</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>76522671</v>
+        <v>3414181</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -7719,41 +7998,40 @@
         <v>440000000</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G23" s="14">
         <v>0.9</v>
       </c>
       <c r="H23" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.27329525357142859</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>1.2193503571428571E-2</v>
       </c>
       <c r="I23" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.20460607219251337</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>9.1288262032085572E-3</v>
       </c>
       <c r="J23" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.27329525357142859</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>1.2193503571428571E-2</v>
       </c>
       <c r="K23" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.30366139285714289</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>1.3548337301587301E-2</v>
       </c>
       <c r="L23" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.22734008021390373</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>1.0143140225787285E-2</v>
       </c>
       <c r="M23" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.30366139285714289</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>1.3548337301587301E-2</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>71088537</v>
+        <v>14766382</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -7765,41 +8043,40 @@
         <v>480000000</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G24" s="14">
         <v>0.9</v>
       </c>
       <c r="H24" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.19746815833333334</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>4.1017727777777777E-2</v>
       </c>
       <c r="I24" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.17423661029411766</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>3.6192112745098037E-2</v>
       </c>
       <c r="J24" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.19746815833333334</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>4.1017727777777777E-2</v>
       </c>
       <c r="K24" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.21940906481481481</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>4.5575253086419749E-2</v>
       </c>
       <c r="L24" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.19359623366013073</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>4.0213458605664484E-2</v>
       </c>
       <c r="M24" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.21940906481481481</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>4.5575253086419749E-2</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>87588999</v>
+        <v>11127133</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -7811,41 +8088,40 @@
         <v>480000000</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G25" s="14">
         <v>0.9</v>
       </c>
       <c r="H25" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.25761470294117644</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>3.2726861764705885E-2</v>
       </c>
       <c r="I25" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.21467891911764705</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>2.7272384803921572E-2</v>
       </c>
       <c r="J25" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.25761470294117644</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>3.2726861764705885E-2</v>
       </c>
       <c r="K25" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.28623855882352939</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>3.6363179738562096E-2</v>
       </c>
       <c r="L25" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.23853213235294116</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>3.030264978213508E-2</v>
       </c>
       <c r="M25" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.28623855882352939</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>3.6363179738562096E-2</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>38082679</v>
+        <v>10247324</v>
       </c>
       <c r="C26" s="1">
         <v>0.85</v>
@@ -7857,41 +8133,40 @@
         <v>440000000</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G26" s="14">
         <v>0.9</v>
       </c>
       <c r="H26" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.119008371875</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>3.20228875E-2</v>
       </c>
       <c r="I26" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.11979452343504246</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>3.2234425920100659E-2</v>
       </c>
       <c r="J26" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.11979452343504246</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>3.2234425920100659E-2</v>
       </c>
       <c r="K26" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.13223152430555557</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>3.5580986111111108E-2</v>
       </c>
       <c r="L26" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.13310502603893606</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>3.5816028800111845E-2</v>
       </c>
       <c r="M26" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.13310502603893606</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>3.5816028800111845E-2</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>91439886</v>
+        <v>81209188</v>
       </c>
       <c r="C27" s="1">
         <v>0.85</v>
@@ -7903,41 +8178,40 @@
         <v>440000000</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G27" s="14">
         <v>0.9</v>
       </c>
       <c r="H27" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.28574964375</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.2537787125</v>
       </c>
       <c r="I27" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.28763726329034289</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.25545513683548288</v>
       </c>
       <c r="J27" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.28763726329034289</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.25545513683548288</v>
       </c>
       <c r="K27" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.31749960416666667</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.2819763472222222</v>
       </c>
       <c r="L27" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.31959695921149212</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.2838390409283143</v>
       </c>
       <c r="M27" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.31959695921149212</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.2838390409283143</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>66930273</v>
+        <v>88725137</v>
       </c>
       <c r="C28" s="1">
         <v>0.85</v>
@@ -7949,41 +8223,40 @@
         <v>440000000</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G28" s="14">
         <v>0.9</v>
       </c>
       <c r="H28" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.20915710312499999</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.27726605312500002</v>
       </c>
       <c r="I28" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.21053876376218938</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.27909763133060717</v>
       </c>
       <c r="J28" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.21053876376218938</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.27909763133060717</v>
       </c>
       <c r="K28" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.23239678124999999</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.30807339236111114</v>
       </c>
       <c r="L28" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.23393195973576597</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.3101084792562302</v>
       </c>
       <c r="M28" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.23393195973576597</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.3101084792562302</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>69258591</v>
+        <v>54161597</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -7995,41 +8268,40 @@
         <v>480000000</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G29" s="14">
         <v>0.9</v>
       </c>
       <c r="H29" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.20370173823529411</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.15929881470588236</v>
       </c>
       <c r="I29" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.16975144852941176</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.13274901225490196</v>
       </c>
       <c r="J29" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.20370173823529411</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.15929881470588236</v>
       </c>
       <c r="K29" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.22633526470588233</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.17699868300653596</v>
       </c>
       <c r="L29" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.18861272058823528</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.14749890250544662</v>
       </c>
       <c r="M29" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.22633526470588233</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.17699868300653596</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>81225732</v>
+        <v>43059171</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -8041,41 +8313,40 @@
         <v>480000000</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G30" s="14">
         <v>0.9</v>
       </c>
       <c r="H30" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.23889921176470588</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.12664462058823531</v>
       </c>
       <c r="I30" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.19908267647058825</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.10553718382352942</v>
       </c>
       <c r="J30" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.23889921176470588</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.12664462058823531</v>
       </c>
       <c r="K30" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.265443568627451</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.14071624509803923</v>
       </c>
       <c r="L30" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.22120297385620916</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.11726353758169936</v>
       </c>
       <c r="M30" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.265443568627451</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.14071624509803923</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>46031197</v>
+        <v>92367870</v>
       </c>
       <c r="C31" s="1">
         <v>0.85</v>
@@ -8087,41 +8358,40 @@
         <v>440000000</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G31" s="14">
         <v>0.9</v>
       </c>
       <c r="H31" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.14384749062499999</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.28864959374999999</v>
       </c>
       <c r="I31" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.14479772569990562</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.29055636992765027</v>
       </c>
       <c r="J31" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.14479772569990562</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.29055636992765027</v>
       </c>
       <c r="K31" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.15983054513888886</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.32072177083333331</v>
       </c>
       <c r="L31" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.16088636188878402</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.32284041103072253</v>
       </c>
       <c r="M31" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.16088636188878402</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.32284041103072253</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>78336327</v>
+        <v>87778363</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -8133,41 +8403,40 @@
         <v>440000000</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G32" s="14">
         <v>0.9</v>
       </c>
       <c r="H32" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.27977259642857144</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.31349415357142857</v>
       </c>
       <c r="I32" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.20945541978609628</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.2347015053475936</v>
       </c>
       <c r="J32" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.27977259642857144</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.31349415357142857</v>
       </c>
       <c r="K32" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.31085844047619049</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.34832683730158731</v>
       </c>
       <c r="L32" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.23272824420677363</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.26077945038621508</v>
       </c>
       <c r="M32" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.31085844047619049</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.34832683730158731</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>92259842</v>
+        <v>99082273</v>
       </c>
       <c r="C33" s="1">
         <v>0.75</v>
@@ -8179,41 +8448,40 @@
         <v>440000000</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G33" s="14">
         <v>0.9</v>
       </c>
       <c r="H33" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.28831200624999997</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.309632103125</v>
       </c>
       <c r="I33" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.32891209269162214</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.35323448484848485</v>
       </c>
       <c r="J33" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.32891209269162214</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.35323448484848485</v>
       </c>
       <c r="K33" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.32034667361111108</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.34403567013888886</v>
       </c>
       <c r="L33" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.36545788076846902</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.39248276094276091</v>
       </c>
       <c r="M33" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.36545788076846902</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.39248276094276091</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>51035054</v>
+        <v>37175284</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -8225,41 +8493,40 @@
         <v>440000000</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G34" s="14">
         <v>0.9</v>
       </c>
       <c r="H34" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.18226804999999999</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.13276887142857144</v>
       </c>
       <c r="I34" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.13645736363636363</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>9.9399155080213908E-2</v>
       </c>
       <c r="J34" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.18226804999999999</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.13276887142857144</v>
       </c>
       <c r="K34" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.20252005555555552</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.14752096825396827</v>
       </c>
       <c r="L34" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.15161929292929291</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.11044350564468211</v>
       </c>
       <c r="M34" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.20252005555555552</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.14752096825396827</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="15">
-        <f t="shared" ref="B35:B66" ca="1" si="2">RANDBETWEEN(100,100000000)</f>
-        <v>47847203</v>
+        <v>40790880</v>
       </c>
       <c r="C35" s="1">
         <v>0.85</v>
@@ -8271,41 +8538,40 @@
         <v>440000000</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G35" s="14">
         <v>0.9</v>
       </c>
       <c r="H35" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.149522509375</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.12747149999999999</v>
       </c>
       <c r="I35" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.15051023277760303</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.12831355772255426</v>
       </c>
       <c r="J35" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.15051023277760303</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.12831355772255426</v>
       </c>
       <c r="K35" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.16613612152777776</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.14163499999999998</v>
       </c>
       <c r="L35" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.16723359197511448</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.14257061969172696</v>
       </c>
       <c r="M35" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.16723359197511448</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.14257061969172696</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>64669352</v>
+        <v>41193321</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -8317,41 +8583,40 @@
         <v>480000000</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G36" s="14">
         <v>0.9</v>
       </c>
       <c r="H36" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.17963708888888888</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.11442589166666667</v>
       </c>
       <c r="I36" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.15850331372549017</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.10096402205882353</v>
       </c>
       <c r="J36" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.17963708888888888</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.11442589166666667</v>
       </c>
       <c r="K36" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.19959676543209875</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.12713987962962964</v>
       </c>
       <c r="L36" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.17611479302832242</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.11218224673202615</v>
       </c>
       <c r="M36" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.19959676543209875</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.12713987962962964</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>13086259</v>
+        <v>73616594</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -8363,41 +8628,40 @@
         <v>430000000</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G37" s="14">
         <v>0.9</v>
       </c>
       <c r="H37" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>4.6736639285714289E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.26291640714285713</v>
       </c>
       <c r="I37" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>3.5803718194254451E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.20141338987688101</v>
       </c>
       <c r="J37" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>4.6736639285714289E-2</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.26291640714285713</v>
       </c>
       <c r="K37" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>5.1929599206349208E-2</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.29212934126984125</v>
       </c>
       <c r="L37" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>3.9781909104727169E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.22379265541875668</v>
       </c>
       <c r="M37" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>5.1929599206349208E-2</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.29212934126984125</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>52217029</v>
+        <v>4550061</v>
       </c>
       <c r="C38" s="1">
         <v>0.85</v>
@@ -8409,41 +8673,40 @@
         <v>440000000</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G38" s="14">
         <v>0.9</v>
       </c>
       <c r="H38" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.16317821562500001</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>1.4218940625000001E-2</v>
       </c>
       <c r="I38" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.16425614658697704</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>1.4312868826675056E-2</v>
       </c>
       <c r="J38" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.16425614658697704</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>1.4312868826675056E-2</v>
       </c>
       <c r="K38" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.18130912847222222</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>1.5798822916666667E-2</v>
       </c>
       <c r="L38" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.1825068295410856</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>1.5903187585194507E-2</v>
       </c>
       <c r="M38" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.1825068295410856</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>1.5903187585194507E-2</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>96572937</v>
+        <v>81913497</v>
       </c>
       <c r="C39" s="1">
         <v>0.85</v>
@@ -8455,41 +8718,40 @@
         <v>480000000</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G39" s="14">
         <v>0.9</v>
       </c>
       <c r="H39" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.28403804999999999</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.24092205</v>
       </c>
       <c r="I39" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.27846867647058826</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.23619808823529415</v>
       </c>
       <c r="J39" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.28403804999999999</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.24092205</v>
       </c>
       <c r="K39" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.3155978333333333</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.26769116666666665</v>
       </c>
       <c r="L39" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.30940964052287584</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.26244232026143793</v>
       </c>
       <c r="M39" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.3155978333333333</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.26769116666666665</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>84062094</v>
+        <v>61258735</v>
       </c>
       <c r="C40" s="1">
         <v>0.75</v>
@@ -8501,41 +8763,40 @@
         <v>480000000</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G40" s="14">
         <v>0.9</v>
       </c>
       <c r="H40" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.24724145294117647</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.18017274999999999</v>
       </c>
       <c r="I40" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.2747127254901961</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.20019194444444444</v>
       </c>
       <c r="J40" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.2747127254901961</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.20019194444444444</v>
       </c>
       <c r="K40" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.2747127254901961</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.20019194444444444</v>
       </c>
       <c r="L40" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.30523636165577345</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.22243549382716049</v>
       </c>
       <c r="M40" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.30523636165577345</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.22243549382716049</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>44827001</v>
+        <v>46950389</v>
       </c>
       <c r="C41" s="1">
         <v>0.75</v>
@@ -8547,41 +8808,40 @@
         <v>480000000</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G41" s="14">
         <v>0.9</v>
       </c>
       <c r="H41" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.12451944722222222</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.13041774722222221</v>
       </c>
       <c r="I41" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.14649346732026142</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.15343264379084967</v>
       </c>
       <c r="J41" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.14649346732026142</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.15343264379084967</v>
       </c>
       <c r="K41" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.13835494135802467</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.14490860802469135</v>
       </c>
       <c r="L41" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.1627705192447349</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.1704807153231663</v>
       </c>
       <c r="M41" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.1627705192447349</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.1704807153231663</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>31223096</v>
+        <v>20318828</v>
       </c>
       <c r="C42" s="1">
         <v>0.75</v>
@@ -8593,41 +8853,40 @@
         <v>480000000</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G42" s="14">
         <v>0.9</v>
       </c>
       <c r="H42" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>8.6730822222222226E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>5.6441188888888889E-2</v>
       </c>
       <c r="I42" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.1020362614379085</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>6.6401398692810462E-2</v>
       </c>
       <c r="J42" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.1020362614379085</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>6.6401398692810462E-2</v>
       </c>
       <c r="K42" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>9.6367580246913581E-2</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>6.2712432098765425E-2</v>
       </c>
       <c r="L42" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.11337362381989834</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>7.3779331880900509E-2</v>
       </c>
       <c r="M42" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.11337362381989834</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>7.3779331880900509E-2</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>18175800</v>
+        <v>44630516</v>
       </c>
       <c r="C43" s="1">
         <v>0.85</v>
@@ -8639,41 +8898,40 @@
         <v>480000000</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G43" s="14">
         <v>0.9</v>
       </c>
       <c r="H43" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>5.0488333333333336E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.12397365555555556</v>
       </c>
       <c r="I43" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>5.2410034602076126E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.1286923760092272</v>
       </c>
       <c r="J43" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>5.2410034602076126E-2</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.1286923760092272</v>
       </c>
       <c r="K43" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>5.6098148148148147E-2</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.13774850617283951</v>
       </c>
       <c r="L43" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>5.8233371780084586E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.14299152889914132</v>
       </c>
       <c r="M43" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>5.8233371780084586E-2</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.14299152889914132</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>87163460</v>
+        <v>37209369</v>
       </c>
       <c r="C44" s="1">
         <v>0.75</v>
@@ -8685,41 +8943,40 @@
         <v>480000000</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G44" s="14">
         <v>0.9</v>
       </c>
       <c r="H44" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.25636311764705882</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.1094393205882353</v>
       </c>
       <c r="I44" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.28484790849673203</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.12159924509803921</v>
       </c>
       <c r="J44" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.28484790849673203</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.12159924509803921</v>
       </c>
       <c r="K44" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.28484790849673203</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.12159924509803922</v>
       </c>
       <c r="L44" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.31649767610748003</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.13511027233115466</v>
       </c>
       <c r="M44" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.31649767610748003</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.13511027233115466</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>85778329</v>
+        <v>54524289</v>
       </c>
       <c r="C45" s="1">
         <v>0.75</v>
@@ -8731,41 +8988,40 @@
         <v>480000000</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G45" s="14">
         <v>0.9</v>
       </c>
       <c r="H45" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.23827313611111112</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.15145635833333335</v>
       </c>
       <c r="I45" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.2803213366013072</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.17818395098039216</v>
       </c>
       <c r="J45" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.2803213366013072</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.17818395098039216</v>
       </c>
       <c r="K45" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.26474792901234567</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.1682848425925926</v>
       </c>
       <c r="L45" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.31146815177923021</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.19798216775599128</v>
       </c>
       <c r="M45" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.31146815177923021</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.19798216775599128</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>14050095</v>
+        <v>76136783</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -8777,41 +9033,40 @@
         <v>480000000</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G46" s="14">
         <v>0.9</v>
       </c>
       <c r="H46" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>4.1323808823529415E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.22393171470588236</v>
       </c>
       <c r="I46" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>3.4436507352941174E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.18660976225490197</v>
       </c>
       <c r="J46" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>4.1323808823529415E-2</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.22393171470588236</v>
       </c>
       <c r="K46" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>4.5915343137254906E-2</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.24881301633986927</v>
       </c>
       <c r="L46" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>3.8262785947712416E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.20734418028322441</v>
       </c>
       <c r="M46" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>4.5915343137254906E-2</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.24881301633986927</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>69732714</v>
+        <v>57772543</v>
       </c>
       <c r="C47" s="1">
         <v>0.85</v>
@@ -8823,41 +9078,40 @@
         <v>480000000</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G47" s="14">
         <v>0.9</v>
       </c>
       <c r="H47" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.20509621764705882</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.16991924411764706</v>
       </c>
       <c r="I47" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.20107472318339101</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.16658749423298733</v>
       </c>
       <c r="J47" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.20509621764705882</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.16991924411764706</v>
       </c>
       <c r="K47" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.22788468627450981</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.18879916013071896</v>
       </c>
       <c r="L47" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.22341635909265667</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.18509721581443037</v>
       </c>
       <c r="M47" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.22788468627450981</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.18879916013071896</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>45448878</v>
+        <v>69760298</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -8869,41 +9123,40 @@
         <v>430000000</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G48" s="14">
         <v>0.9</v>
       </c>
       <c r="H48" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.16231742142857142</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.24914392142857142</v>
       </c>
       <c r="I48" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.12434713543091655</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.19086264842681258</v>
       </c>
       <c r="J48" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.16231742142857142</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.24914392142857142</v>
       </c>
       <c r="K48" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.18035269047619046</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.27682657936507937</v>
       </c>
       <c r="L48" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.13816348381212951</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.21206960936312508</v>
       </c>
       <c r="M48" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.18035269047619046</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.27682657936507937</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>27106429</v>
+        <v>8334417</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -8915,41 +9168,40 @@
         <v>430000000</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G49" s="14">
         <v>0.9</v>
       </c>
       <c r="H49" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>9.0354763333333338E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>2.778139E-2</v>
       </c>
       <c r="I49" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>7.4162596443228465E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>2.2802782489740082E-2</v>
       </c>
       <c r="J49" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>9.0354763333333338E-2</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>2.778139E-2</v>
       </c>
       <c r="K49" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.10039418148148148</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>3.0868211111111109E-2</v>
       </c>
       <c r="L49" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>8.2402884936920509E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>2.533642498860009E-2</v>
       </c>
       <c r="M49" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.10039418148148148</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>3.0868211111111109E-2</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>88894171</v>
+        <v>22367384</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -8961,41 +9213,40 @@
         <v>480000000</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G50" s="14">
         <v>0.9</v>
       </c>
       <c r="H50" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.26145344411764704</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>6.5786423529411761E-2</v>
       </c>
       <c r="I50" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.21787787009803922</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>5.4822019607843143E-2</v>
       </c>
       <c r="J50" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.26145344411764704</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>6.5786423529411761E-2</v>
       </c>
       <c r="K50" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.29050382679738557</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>7.3096026143790849E-2</v>
       </c>
       <c r="L50" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.24208652233115469</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>6.0913355119825714E-2</v>
       </c>
       <c r="M50" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.29050382679738557</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>7.3096026143790849E-2</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>5452077</v>
+        <v>40090992</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -9007,41 +9258,40 @@
         <v>430000000</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G51" s="14">
         <v>0.9</v>
       </c>
       <c r="H51" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>1.9471703571428571E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.14318211428571428</v>
       </c>
       <c r="I51" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>1.4916763337893296E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.10968807660738715</v>
       </c>
       <c r="J51" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>1.9471703571428571E-2</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.14318211428571428</v>
       </c>
       <c r="K51" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>2.1635226190476191E-2</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.15909123809523809</v>
       </c>
       <c r="L51" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>1.6574181486548108E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.12187564067487461</v>
       </c>
       <c r="M51" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>2.1635226190476191E-2</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.15909123809523809</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>12628293</v>
+        <v>18512216</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -9053,41 +9303,40 @@
         <v>480000000</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G52" s="14">
         <v>0.9</v>
       </c>
       <c r="H52" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>3.5078591666666666E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>5.142282222222222E-2</v>
       </c>
       <c r="I52" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>3.0951698529411768E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>4.5373078431372553E-2</v>
       </c>
       <c r="J52" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>3.5078591666666666E-2</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>5.142282222222222E-2</v>
       </c>
       <c r="K52" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>3.8976212962962963E-2</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>5.7136469135802462E-2</v>
       </c>
       <c r="L52" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>3.4390776143790852E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>5.0414531590413945E-2</v>
       </c>
       <c r="M52" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>3.8976212962962963E-2</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>5.7136469135802462E-2</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B53" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>26144771</v>
+        <v>43053395</v>
       </c>
       <c r="C53" s="1">
         <v>0.85</v>
@@ -9099,41 +9348,40 @@
         <v>480000000</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G53" s="14">
         <v>0.9</v>
       </c>
       <c r="H53" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>7.262436388888889E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.11959276388888888</v>
       </c>
       <c r="I53" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>7.5388613033448668E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.12414473760092273</v>
       </c>
       <c r="J53" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>7.5388613033448668E-2</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.12414473760092273</v>
       </c>
       <c r="K53" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>8.0693737654320988E-2</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.1328808487654321</v>
       </c>
       <c r="L53" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>8.3765125592720743E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.13793859733435859</v>
       </c>
       <c r="M53" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>8.3765125592720743E-2</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.13793859733435859</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>74617426</v>
+        <v>72919768</v>
       </c>
       <c r="C54" s="1">
         <v>0.85</v>
@@ -9145,41 +9393,40 @@
         <v>480000000</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G54" s="14">
         <v>0.9</v>
       </c>
       <c r="H54" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.20727062777777777</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.20255491111111112</v>
       </c>
       <c r="I54" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.21515982122260668</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.21026461361014998</v>
       </c>
       <c r="J54" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.21515982122260668</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.21026461361014998</v>
       </c>
       <c r="K54" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.23030069753086418</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.22506101234567902</v>
       </c>
       <c r="L54" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.23906646802511852</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.23362734845572219</v>
       </c>
       <c r="M54" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.23906646802511852</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.23362734845572219</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>90940553</v>
+        <v>57232715</v>
       </c>
       <c r="C55" s="1">
         <v>0.85</v>
@@ -9191,41 +9438,40 @@
         <v>480000000</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G55" s="14">
         <v>0.9</v>
       </c>
       <c r="H55" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.25261264722222221</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.15897976388888888</v>
       </c>
       <c r="I55" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.26222766147635529</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.16503089677047292</v>
       </c>
       <c r="J55" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.26222766147635529</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.16503089677047292</v>
       </c>
       <c r="K55" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.28068071913580245</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.17664418209876542</v>
       </c>
       <c r="L55" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.29136406830706141</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.18336766307830324</v>
       </c>
       <c r="M55" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.29136406830706141</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.18336766307830324</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B56" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>41307744</v>
+        <v>84961722</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -9237,41 +9483,40 @@
         <v>480000000</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G56" s="14">
         <v>0.9</v>
       </c>
       <c r="H56" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.12149336470588236</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.24988741764705882</v>
       </c>
       <c r="I56" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.1012444705882353</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.20823951470588234</v>
       </c>
       <c r="J56" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.12149336470588236</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.24988741764705882</v>
       </c>
       <c r="K56" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.1349926274509804</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.27765268627450979</v>
       </c>
       <c r="L56" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.11249385620915033</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.23137723856209147</v>
       </c>
       <c r="M56" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.1349926274509804</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.27765268627450979</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B57" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>64601668</v>
+        <v>62231540</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -9283,41 +9528,40 @@
         <v>430000000</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G57" s="14">
         <v>0.9</v>
       </c>
       <c r="H57" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.23072024285714285</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.22225549999999999</v>
       </c>
       <c r="I57" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.17674874965800275</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.1702641313269494</v>
       </c>
       <c r="J57" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.23072024285714285</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.22225549999999999</v>
       </c>
       <c r="K57" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.25635582539682539</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.24695055555555553</v>
       </c>
       <c r="L57" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.19638749962000304</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.18918236814105488</v>
       </c>
       <c r="M57" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.25635582539682539</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.24695055555555553</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B58" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>8504142</v>
+        <v>29686819</v>
       </c>
       <c r="C58" s="1">
         <v>0.85</v>
@@ -9329,41 +9573,40 @@
         <v>480000000</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G58" s="14">
         <v>0.9</v>
       </c>
       <c r="H58" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>2.3622616666666665E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>8.2463386111111106E-2</v>
       </c>
       <c r="I58" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>2.452174740484429E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>8.5602130911187999E-2</v>
       </c>
       <c r="J58" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>2.452174740484429E-2</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>8.5602130911187999E-2</v>
       </c>
       <c r="K58" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>2.6247351851851848E-2</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>9.1625984567901234E-2</v>
       </c>
       <c r="L58" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>2.7246386005382543E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>9.5113478790208886E-2</v>
       </c>
       <c r="M58" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>2.7246386005382543E-2</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>9.5113478790208886E-2</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B59" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>84830511</v>
+        <v>59760705</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -9375,41 +9618,40 @@
         <v>430000000</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G59" s="14">
         <v>0.9</v>
       </c>
       <c r="H59" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.3029661107142857</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.21343108928571428</v>
       </c>
       <c r="I59" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.2320944213406293</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.16350398084815321</v>
       </c>
       <c r="J59" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.3029661107142857</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.21343108928571428</v>
       </c>
       <c r="K59" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.33662901190476185</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.23714565476190475</v>
       </c>
       <c r="L59" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.257882690378477</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.18167108983128133</v>
       </c>
       <c r="M59" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.33662901190476185</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.23714565476190475</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>95981764</v>
+        <v>57878783</v>
       </c>
       <c r="C60" s="1">
         <v>0.85</v>
@@ -9421,41 +9663,40 @@
         <v>480000000</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G60" s="14">
         <v>0.9</v>
       </c>
       <c r="H60" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.26661601111111111</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.16077439722222223</v>
       </c>
       <c r="I60" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.27676402537485584</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.16689383794694351</v>
       </c>
       <c r="J60" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.27676402537485584</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.16689383794694351</v>
       </c>
       <c r="K60" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.29624001234567898</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.17863821913580247</v>
       </c>
       <c r="L60" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.30751558374983984</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.18543759771882612</v>
       </c>
       <c r="M60" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.30751558374983984</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.18543759771882612</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B61" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>37219848</v>
+        <v>20330356</v>
       </c>
       <c r="C61" s="1">
         <v>0.85</v>
@@ -9467,41 +9708,40 @@
         <v>480000000</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G61" s="14">
         <v>0.9</v>
       </c>
       <c r="H61" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.10338846666666666</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>5.6473211111111109E-2</v>
       </c>
       <c r="I61" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.1073236678200692</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>5.8622710495963098E-2</v>
       </c>
       <c r="J61" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.1073236678200692</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>5.8622710495963098E-2</v>
       </c>
       <c r="K61" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.11487607407407407</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>6.2748012345679005E-2</v>
       </c>
       <c r="L61" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.11924851980007689</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>6.5136344995514558E-2</v>
       </c>
       <c r="M61" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.11924851980007689</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>6.5136344995514558E-2</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>31716450</v>
+        <v>90516632</v>
       </c>
       <c r="C62" s="1">
         <v>0.85</v>
@@ -9513,41 +9753,40 @@
         <v>480000000</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G62" s="14">
         <v>0.9</v>
       </c>
       <c r="H62" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>8.8101250000000006E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.25143508888888888</v>
       </c>
       <c r="I62" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>9.1454584775086514E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.26100528258362166</v>
       </c>
       <c r="J62" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>9.1454584775086514E-2</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.26100528258362166</v>
       </c>
       <c r="K62" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>9.7890277777777784E-2</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.2793723209876543</v>
       </c>
       <c r="L62" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.10161620530565169</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.29000586953735741</v>
       </c>
       <c r="M62" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.10161620530565169</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.29000586953735741</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B63" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>64947764</v>
+        <v>75016083</v>
       </c>
       <c r="C63" s="1">
         <v>0.85</v>
@@ -9559,41 +9798,40 @@
         <v>480000000</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G63" s="14">
         <v>0.9</v>
       </c>
       <c r="H63" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.18041045555555554</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.20837800833333334</v>
       </c>
       <c r="I63" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.18727728950403694</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.21630935121107267</v>
       </c>
       <c r="J63" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.18727728950403694</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.21630935121107267</v>
       </c>
       <c r="K63" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.20045606172839503</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.23153112037037038</v>
       </c>
       <c r="L63" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.20808587722670771</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.24034372356785852</v>
       </c>
       <c r="M63" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.20808587722670771</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.24034372356785852</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>77232781</v>
+        <v>36074613</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -9605,41 +9843,40 @@
         <v>480000000</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G64" s="14">
         <v>0.9</v>
       </c>
       <c r="H64" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.21453550277777778</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.10020725833333333</v>
       </c>
       <c r="I64" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.1892960318627451</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>8.8418169117647064E-2</v>
       </c>
       <c r="J64" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.21453550277777778</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.10020725833333333</v>
       </c>
       <c r="K64" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.23837278086419753</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.11134139814814814</v>
       </c>
       <c r="L64" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.210328924291939</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>9.8242410130718952E-2</v>
       </c>
       <c r="M64" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.23837278086419753</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.11134139814814814</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>96236781</v>
+        <v>45032956</v>
       </c>
       <c r="C65" s="1">
         <v>0.75</v>
@@ -9651,41 +9888,40 @@
         <v>480000000</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G65" s="14">
         <v>0.9</v>
       </c>
       <c r="H65" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.26732439166666666</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.12509154444444445</v>
       </c>
       <c r="I65" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.31449928431372548</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.147166522875817</v>
       </c>
       <c r="J65" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.31449928431372548</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.147166522875817</v>
       </c>
       <c r="K65" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.29702710185185183</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.13899060493827162</v>
       </c>
       <c r="L65" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.34944364923747273</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.16351835875090778</v>
       </c>
       <c r="M65" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.34944364923747273</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.16351835875090778</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="15">
-        <f t="shared" ca="1" si="2"/>
-        <v>89980682</v>
+        <v>83674470</v>
       </c>
       <c r="C66" s="1">
         <v>0.75</v>
@@ -9697,41 +9933,40 @@
         <v>480000000</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="G66" s="14">
         <v>0.9</v>
       </c>
       <c r="H66" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.2499463388888889</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.23242908333333334</v>
       </c>
       <c r="I66" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.29405451633986929</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.2734459803921569</v>
       </c>
       <c r="J66" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.29405451633986929</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.2734459803921569</v>
       </c>
       <c r="K66" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.27771815432098768</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.25825453703703705</v>
       </c>
       <c r="L66" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.32672724037763251</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.30382886710239654</v>
       </c>
       <c r="M66" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.32672724037763251</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.30382886710239654</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B67" s="15">
-        <f t="shared" ref="B67:B83" ca="1" si="3">RANDBETWEEN(100,100000000)</f>
-        <v>77345505</v>
+        <v>46734807</v>
       </c>
       <c r="C67" s="1">
         <v>0.85</v>
@@ -9743,41 +9978,40 @@
         <v>480000000</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" ref="F67:F83" si="4">0.85</f>
+        <f t="shared" ref="F67:F83" si="1">0.85</f>
         <v>0.85</v>
       </c>
       <c r="G67" s="14">
         <v>0.9</v>
       </c>
       <c r="H67" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.21484862499999999</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.12981890833333334</v>
       </c>
       <c r="I67" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.22302625432525952</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.13476011245674741</v>
       </c>
       <c r="J67" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.22302625432525952</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.13476011245674741</v>
       </c>
       <c r="K67" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.23872069444444444</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.14424323148148149</v>
       </c>
       <c r="L67" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.24780694925028834</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.1497334582852749</v>
       </c>
       <c r="M67" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.24780694925028834</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.1497334582852749</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B68" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>7500088</v>
+        <v>40628429</v>
       </c>
       <c r="C68" s="1">
         <v>0.85</v>
@@ -9789,41 +10023,40 @@
         <v>480000000</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
       <c r="G68" s="14">
         <v>0.9</v>
       </c>
       <c r="H68" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>2.0833577777777779E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.11285674722222222</v>
       </c>
       <c r="I68" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>2.1626551326412918E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.11715233275663207</v>
       </c>
       <c r="J68" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>2.1626551326412918E-2</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.11715233275663207</v>
       </c>
       <c r="K68" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>2.314841975308642E-2</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.12539638580246912</v>
       </c>
       <c r="L68" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>2.4029501473792132E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.13016925861848008</v>
       </c>
       <c r="M68" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>2.4029501473792132E-2</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.13016925861848008</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B69" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>93704723</v>
+        <v>63473379</v>
       </c>
       <c r="C69" s="1">
         <v>0.75</v>
@@ -9835,41 +10068,40 @@
         <v>480000000</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
       <c r="G69" s="14">
         <v>0.9</v>
       </c>
       <c r="H69" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.26029089722222221</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.17631494166666667</v>
       </c>
       <c r="I69" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.3062245849673203</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.20742934313725492</v>
       </c>
       <c r="J69" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.3062245849673203</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.20742934313725492</v>
       </c>
       <c r="K69" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.28921210802469133</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.19590549074074073</v>
       </c>
       <c r="L69" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.34024953885257808</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.23047704793028323</v>
       </c>
       <c r="M69" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.34024953885257808</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.23047704793028323</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B70" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>8155216</v>
+        <v>766349</v>
       </c>
       <c r="C70" s="1">
         <v>0.85</v>
@@ -9881,41 +10113,40 @@
         <v>480000000</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
       <c r="G70" s="14">
         <v>0.9</v>
       </c>
       <c r="H70" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>2.2653377777777779E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>2.1287472222222222E-3</v>
       </c>
       <c r="I70" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>2.3515617070357559E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>2.2097722029988465E-3</v>
       </c>
       <c r="J70" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>2.3515617070357559E-2</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>2.2097722029988465E-3</v>
       </c>
       <c r="K70" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>2.5170419753086419E-2</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>2.3652746913580248E-3</v>
       </c>
       <c r="L70" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>2.6128463411508398E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>2.4553024477764959E-3</v>
       </c>
       <c r="M70" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>2.6128463411508398E-2</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>2.4553024477764959E-3</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B71" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>75679807</v>
+        <v>3375995</v>
       </c>
       <c r="C71" s="1">
         <v>0.85</v>
@@ -9927,41 +10158,40 @@
         <v>480000000</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
       <c r="G71" s="14">
         <v>0.9</v>
       </c>
       <c r="H71" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.21022168611111111</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>9.3777638888888886E-3</v>
       </c>
       <c r="I71" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.21822320357554786</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>9.7347029988465988E-3</v>
       </c>
       <c r="J71" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.21822320357554786</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>9.7347029988465988E-3</v>
       </c>
       <c r="K71" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.23357965123456789</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>1.0419737654320986E-2</v>
       </c>
       <c r="L71" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.24247022619505318</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>1.0816336665385109E-2</v>
       </c>
       <c r="M71" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.24247022619505318</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>1.0816336665385109E-2</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B72" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>84086883</v>
+        <v>63527496</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -9973,41 +10203,40 @@
         <v>480000000</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
       <c r="G72" s="14">
         <v>0.9</v>
       </c>
       <c r="H72" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.23357467500000001</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.17646526666666668</v>
       </c>
       <c r="I72" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.20609530147058824</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.15570464705882353</v>
       </c>
       <c r="J72" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.23357467500000001</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.17646526666666668</v>
       </c>
       <c r="K72" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.25952741666666668</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.19607251851851853</v>
       </c>
       <c r="L72" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.22899477941176472</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.17300516339869282</v>
       </c>
       <c r="M72" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.25952741666666668</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.19607251851851853</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B73" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>97677127</v>
+        <v>67051535</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -10019,41 +10248,40 @@
         <v>440000000</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
       <c r="G73" s="14">
         <v>0.9</v>
       </c>
       <c r="H73" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.34884688214285714</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.23946976785714286</v>
       </c>
       <c r="I73" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.26116878877005345</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.17928217914438502</v>
       </c>
       <c r="J73" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.34884688214285714</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.23946976785714286</v>
       </c>
       <c r="K73" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.38760764682539683</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.26607751984126982</v>
       </c>
       <c r="L73" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.29018754307783717</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.19920242127153889</v>
       </c>
       <c r="M73" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.38760764682539683</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.26607751984126982</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B74" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>23214594</v>
+        <v>5772936</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -10065,41 +10293,40 @@
         <v>480000000</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
       <c r="G74" s="14">
         <v>0.9</v>
       </c>
       <c r="H74" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>6.8278217647058825E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>1.6979223529411766E-2</v>
       </c>
       <c r="I74" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>5.6898514705882357E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>1.4149352941176472E-2</v>
       </c>
       <c r="J74" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>6.8278217647058825E-2</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>1.6979223529411766E-2</v>
       </c>
       <c r="K74" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>7.5864686274509804E-2</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>1.8865803921568627E-2</v>
       </c>
       <c r="L74" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>6.3220571895424835E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>1.5721503267973856E-2</v>
       </c>
       <c r="M74" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>7.5864686274509804E-2</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>1.8865803921568627E-2</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B75" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>32601115</v>
+        <v>28528578</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
@@ -10111,41 +10338,40 @@
         <v>430000000</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
       <c r="G75" s="14">
         <v>0.9</v>
       </c>
       <c r="H75" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.10867038333333333</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>9.5095260000000001E-2</v>
       </c>
       <c r="I75" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>8.9195937072503423E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>7.8053564979480169E-2</v>
       </c>
       <c r="J75" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.10867038333333333</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>9.5095260000000001E-2</v>
       </c>
       <c r="K75" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.12074487037037036</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.1056614</v>
       </c>
       <c r="L75" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>9.9106596747226022E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>8.6726183310533514E-2</v>
       </c>
       <c r="M75" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.12074487037037036</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.1056614</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B76" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>61827884</v>
+        <v>12607892</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -10157,41 +10383,40 @@
         <v>480000000</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
       <c r="G76" s="14">
         <v>0.9</v>
       </c>
       <c r="H76" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.16270495789473685</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>3.3178663157894736E-2</v>
       </c>
       <c r="I76" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.15153893137254901</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>3.0901696078431372E-2</v>
       </c>
       <c r="J76" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.16270495789473685</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>3.3178663157894736E-2</v>
       </c>
       <c r="K76" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.1807832865497076</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>3.6865181286549704E-2</v>
       </c>
       <c r="L76" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.16837659041394334</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>3.4335217864923745E-2</v>
       </c>
       <c r="M76" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.1807832865497076</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>3.6865181286549704E-2</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B77" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>31662609</v>
+        <v>67218625</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -10203,41 +10428,40 @@
         <v>480000000</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
       <c r="G77" s="14">
         <v>0.9</v>
       </c>
       <c r="H77" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>8.3322655263157894E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.17689111842105262</v>
       </c>
       <c r="I77" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>7.7604433823529412E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.1647515318627451</v>
       </c>
       <c r="J77" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>8.3322655263157894E-2</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.17689111842105262</v>
       </c>
       <c r="K77" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>9.2580728070175436E-2</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.19654568713450291</v>
       </c>
       <c r="L77" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>8.6227148692810451E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.18305725762527233</v>
       </c>
       <c r="M77" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>9.2580728070175436E-2</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.19654568713450291</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B78" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>41569864</v>
+        <v>97702554</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -10249,41 +10473,40 @@
         <v>480000000</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
       <c r="G78" s="14">
         <v>0.9</v>
       </c>
       <c r="H78" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.11547184444444444</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.27139598333333331</v>
       </c>
       <c r="I78" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.10188692156862746</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.23946704411764708</v>
       </c>
       <c r="J78" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.11547184444444444</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.27139598333333331</v>
       </c>
       <c r="K78" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.12830204938271605</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.30155109259259255</v>
       </c>
       <c r="L78" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.11320769063180829</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.26607449346405232</v>
       </c>
       <c r="M78" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.12830204938271605</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.30155109259259255</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>41824495</v>
+        <v>67705041</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
@@ -10295,41 +10518,40 @@
         <v>430000000</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
       <c r="G79" s="14">
         <v>0.9</v>
       </c>
       <c r="H79" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>0.13941498333333333</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.22568347</v>
       </c>
       <c r="I79" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>0.11443090287277702</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.18523951025991794</v>
       </c>
       <c r="J79" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>0.13941498333333333</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.22568347</v>
       </c>
       <c r="K79" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.15490553703703702</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.25075941111111111</v>
       </c>
       <c r="L79" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.12714544763641891</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.20582167806657548</v>
       </c>
       <c r="M79" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>0.15490553703703702</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.25075941111111111</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B80" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>7590730</v>
+        <v>79821743</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
@@ -10341,41 +10563,40 @@
         <v>480000000</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
       <c r="G80" s="14">
         <v>0.9</v>
       </c>
       <c r="H80" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>2.108536111111111E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>0.22172706388888888</v>
       </c>
       <c r="I80" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>1.8604730392156862E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>0.19564152696078432</v>
       </c>
       <c r="J80" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>2.108536111111111E-2</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>0.22172706388888888</v>
       </c>
       <c r="K80" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>2.3428179012345677E-2</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.24636340432098763</v>
       </c>
       <c r="L80" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>2.067192265795207E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.21737947440087146</v>
       </c>
       <c r="M80" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>2.3428179012345677E-2</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>0.24636340432098763</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>18335652</v>
+        <v>17710111</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
@@ -10387,41 +10608,40 @@
         <v>430000000</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
       <c r="G81" s="14">
         <v>0.9</v>
       </c>
       <c r="H81" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>6.5484471428571431E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>6.3250396428571429E-2</v>
       </c>
       <c r="I81" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>5.0165942544459649E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>4.8454476060191515E-2</v>
       </c>
       <c r="J81" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>6.5484471428571431E-2</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>6.3250396428571429E-2</v>
       </c>
       <c r="K81" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>7.2760523809523817E-2</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>7.0278218253968253E-2</v>
       </c>
       <c r="L81" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>5.573993616051072E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>5.3838306733546129E-2</v>
       </c>
       <c r="M81" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>7.2760523809523817E-2</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>7.0278218253968253E-2</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>507289</v>
+        <v>19929388</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
@@ -10433,41 +10653,40 @@
         <v>430000000</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
       <c r="G82" s="14">
         <v>0.9</v>
       </c>
       <c r="H82" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>1.6909633333333333E-3</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>6.6431293333333336E-2</v>
       </c>
       <c r="I82" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>1.3879316005471955E-3</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>5.4526369357045142E-2</v>
       </c>
       <c r="J82" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>1.6909633333333333E-3</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>6.6431293333333336E-2</v>
       </c>
       <c r="K82" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>1.8788481481481481E-3</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>7.3812548148148152E-2</v>
       </c>
       <c r="L82" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>1.5421462228302173E-3</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>6.0584854841161266E-2</v>
       </c>
       <c r="M82" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>1.8788481481481481E-3</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>7.3812548148148152E-2</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>4344842</v>
+        <v>20877663</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -10479,35 +10698,35 @@
         <v>430000000</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
       <c r="G83" s="14">
         <v>0.9</v>
       </c>
       <c r="H83" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
-        <v>1.4482806666666667E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[fy]]</f>
+        <v>6.9592210000000002E-2</v>
       </c>
       <c r="I83" s="16">
-        <f ca="1">tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
-        <v>1.1887392612859097E-2</v>
+        <f>tblArea[[#This Row],[Force]]/tblArea[[#This Row],[Ultimate Uncertainty]]/tblArea[[#This Row],[kt]]/tblArea[[#This Row],[fu]]</f>
+        <v>5.7120829001367994E-2</v>
       </c>
       <c r="J83" s="16">
-        <f ca="1">MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
-        <v>1.4482806666666667E-2</v>
+        <f>MAX(tblArea[[#This Row],[Ag]],tblArea[[#This Row],[An]])</f>
+        <v>6.9592210000000002E-2</v>
       </c>
       <c r="K83" s="16">
-        <f ca="1">tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
-        <v>1.6092007407407408E-2</v>
+        <f>tblArea[[#This Row],[Ag]]/tblArea[[#This Row],[φ]]</f>
+        <v>7.7324677777777781E-2</v>
       </c>
       <c r="L83" s="16">
-        <f ca="1">tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
-        <v>1.3208214014287884E-2</v>
+        <f>tblArea[[#This Row],[An]]/tblArea[[#This Row],[φ]]</f>
+        <v>6.3467587779297771E-2</v>
       </c>
       <c r="M83" s="17">
-        <f ca="1">tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
-        <v>1.6092007407407408E-2</v>
+        <f>tblArea[[#This Row],[A]]/tblArea[[#This Row],[φ]]</f>
+        <v>7.7324677777777781E-2</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.2">
@@ -10517,11 +10736,11 @@
       </c>
       <c r="C85" s="6" t="str">
         <f t="array" aca="1" ref="C85" ca="1">_xlfn.CONCAT(IF(INDIRECT("tblArea["&amp;B85&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tblArea["&amp;B85&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
-        <v xml:space="preserve">9.2281E+07, 8.9250E+07, 3.7976E+06, 1.1725E+07, 2.4226E+07, 6.5774E+07, 3.7974E+05, 6.1177E+07, 5.7065E+05, 9.1917E+07, 8.0549E+07, 8.0857E+07, 2.9425E+07, 3.8406E+07, 8.8159E+07, 2.1359E+07, 3.9121E+07, 9.8202E+07, 8.6747E+07, 3.4473E+07, 7.6523E+07, 7.1089E+07, 8.7589E+07, 3.8083E+07, 9.1440E+07, 6.6930E+07, 6.9259E+07, 8.1226E+07, 4.6031E+07, 7.8336E+07, 9.2260E+07, 5.1035E+07, 4.7847E+07, 6.4669E+07, 1.3086E+07, 5.2217E+07, 9.6573E+07, 8.4062E+07, 4.4827E+07, 3.1223E+07, 1.8176E+07, 8.7163E+07, 8.5778E+07, 1.4050E+07, 6.9733E+07, 4.5449E+07, 2.7106E+07, 8.8894E+07, 5.4521E+06, 1.2628E+07, 2.6145E+07, 7.4617E+07, 9.0941E+07, 4.1308E+07, 6.4602E+07, 8.5041E+06, 8.4831E+07, 9.5982E+07, 3.7220E+07, 3.1716E+07, 6.4948E+07, 7.7233E+07, 9.6237E+07, 8.9981E+07, 7.7346E+07, 7.5001E+06, 9.3705E+07, 8.1552E+06, 7.5680E+07, 8.4087E+07, 9.7677E+07, 2.3215E+07, 3.2601E+07, 6.1828E+07, 3.1663E+07, 4.1570E+07, 4.1824E+07, 7.5907E+06, 1.8336E+07, 5.0729E+05, 4.3448E+06, </v>
+        <v xml:space="preserve">9.2625E+07, 3.9299E+07, 4.5828E+07, 8.4882E+07, 7.0616E+07, 5.1388E+07, 6.9475E+07, 7.3045E+07, 5.9114E+07, 8.4484E+07, 7.9401E+07, 6.2455E+07, 4.2830E+07, 4.2349E+07, 2.0708E+07, 9.8392E+06, 8.2210E+07, 2.5659E+07, 7.6397E+07, 5.9568E+07, 3.4142E+06, 1.4766E+07, 1.1127E+07, 1.0247E+07, 8.1209E+07, 8.8725E+07, 5.4162E+07, 4.3059E+07, 9.2368E+07, 8.7778E+07, 9.9082E+07, 3.7175E+07, 4.0791E+07, 4.1193E+07, 7.3617E+07, 4.5501E+06, 8.1913E+07, 6.1259E+07, 4.6950E+07, 2.0319E+07, 4.4631E+07, 3.7209E+07, 5.4524E+07, 7.6137E+07, 5.7773E+07, 6.9760E+07, 8.3344E+06, 2.2367E+07, 4.0091E+07, 1.8512E+07, 4.3053E+07, 7.2920E+07, 5.7233E+07, 8.4962E+07, 6.2232E+07, 2.9687E+07, 5.9761E+07, 5.7879E+07, 2.0330E+07, 9.0517E+07, 7.5016E+07, 3.6075E+07, 4.5033E+07, 8.3674E+07, 4.6735E+07, 4.0628E+07, 6.3473E+07, 7.6635E+05, 3.3760E+06, 6.3527E+07, 6.7052E+07, 5.7729E+06, 2.8529E+07, 1.2608E+07, 6.7219E+07, 9.7703E+07, 6.7705E+07, 7.9822E+07, 1.7710E+07, 1.9929E+07, 2.0878E+07, </v>
       </c>
       <c r="D85" s="3" t="str">
         <f ca="1">B85&amp;" = ("&amp;LEFT(C85,LEN(C85)-2)&amp;")"</f>
-        <v>Force = (9.2281E+07, 8.9250E+07, 3.7976E+06, 1.1725E+07, 2.4226E+07, 6.5774E+07, 3.7974E+05, 6.1177E+07, 5.7065E+05, 9.1917E+07, 8.0549E+07, 8.0857E+07, 2.9425E+07, 3.8406E+07, 8.8159E+07, 2.1359E+07, 3.9121E+07, 9.8202E+07, 8.6747E+07, 3.4473E+07, 7.6523E+07, 7.1089E+07, 8.7589E+07, 3.8083E+07, 9.1440E+07, 6.6930E+07, 6.9259E+07, 8.1226E+07, 4.6031E+07, 7.8336E+07, 9.2260E+07, 5.1035E+07, 4.7847E+07, 6.4669E+07, 1.3086E+07, 5.2217E+07, 9.6573E+07, 8.4062E+07, 4.4827E+07, 3.1223E+07, 1.8176E+07, 8.7163E+07, 8.5778E+07, 1.4050E+07, 6.9733E+07, 4.5449E+07, 2.7106E+07, 8.8894E+07, 5.4521E+06, 1.2628E+07, 2.6145E+07, 7.4617E+07, 9.0941E+07, 4.1308E+07, 6.4602E+07, 8.5041E+06, 8.4831E+07, 9.5982E+07, 3.7220E+07, 3.1716E+07, 6.4948E+07, 7.7233E+07, 9.6237E+07, 8.9981E+07, 7.7346E+07, 7.5001E+06, 9.3705E+07, 8.1552E+06, 7.5680E+07, 8.4087E+07, 9.7677E+07, 2.3215E+07, 3.2601E+07, 6.1828E+07, 3.1663E+07, 4.1570E+07, 4.1824E+07, 7.5907E+06, 1.8336E+07, 5.0729E+05, 4.3448E+06)</v>
+        <v>Force = (9.2625E+07, 3.9299E+07, 4.5828E+07, 8.4882E+07, 7.0616E+07, 5.1388E+07, 6.9475E+07, 7.3045E+07, 5.9114E+07, 8.4484E+07, 7.9401E+07, 6.2455E+07, 4.2830E+07, 4.2349E+07, 2.0708E+07, 9.8392E+06, 8.2210E+07, 2.5659E+07, 7.6397E+07, 5.9568E+07, 3.4142E+06, 1.4766E+07, 1.1127E+07, 1.0247E+07, 8.1209E+07, 8.8725E+07, 5.4162E+07, 4.3059E+07, 9.2368E+07, 8.7778E+07, 9.9082E+07, 3.7175E+07, 4.0791E+07, 4.1193E+07, 7.3617E+07, 4.5501E+06, 8.1913E+07, 6.1259E+07, 4.6950E+07, 2.0319E+07, 4.4631E+07, 3.7209E+07, 5.4524E+07, 7.6137E+07, 5.7773E+07, 6.9760E+07, 8.3344E+06, 2.2367E+07, 4.0091E+07, 1.8512E+07, 4.3053E+07, 7.2920E+07, 5.7233E+07, 8.4962E+07, 6.2232E+07, 2.9687E+07, 5.9761E+07, 5.7879E+07, 2.0330E+07, 9.0517E+07, 7.5016E+07, 3.6075E+07, 4.5033E+07, 8.3674E+07, 4.6735E+07, 4.0628E+07, 6.3473E+07, 7.6635E+05, 3.3760E+06, 6.3527E+07, 6.7052E+07, 5.7729E+06, 2.8529E+07, 1.2608E+07, 6.7219E+07, 9.7703E+07, 6.7705E+07, 7.9822E+07, 1.7710E+07, 1.9929E+07, 2.0878E+07)</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.2">
@@ -10533,7 +10752,7 @@
         <v xml:space="preserve">8.5000E-01, 7.5000E-01, 1.0000E+00, 1.0000E+00, 8.5000E-01, 1.0000E+00, 8.5000E-01, 7.5000E-01, 7.5000E-01, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 8.5000E-01, 8.5000E-01, 8.5000E-01, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 8.5000E-01, 8.5000E-01, 8.5000E-01, 1.0000E+00, 1.0000E+00, 8.5000E-01, 1.0000E+00, 7.5000E-01, 1.0000E+00, 8.5000E-01, 1.0000E+00, 1.0000E+00, 8.5000E-01, 8.5000E-01, 7.5000E-01, 7.5000E-01, 7.5000E-01, 8.5000E-01, 7.5000E-01, 7.5000E-01, 1.0000E+00, 8.5000E-01, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 8.5000E-01, 8.5000E-01, 8.5000E-01, 1.0000E+00, 1.0000E+00, 8.5000E-01, 1.0000E+00, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 1.0000E+00, 7.5000E-01, 7.5000E-01, 8.5000E-01, 8.5000E-01, 7.5000E-01, 8.5000E-01, 8.5000E-01, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, </v>
       </c>
       <c r="D86" s="3" t="str">
-        <f t="shared" ref="D86:D110" ca="1" si="5">B86&amp;" = ("&amp;LEFT(C86,LEN(C86)-2)&amp;")"</f>
+        <f t="shared" ref="D86:D110" ca="1" si="2">B86&amp;" = ("&amp;LEFT(C86,LEN(C86)-2)&amp;")"</f>
         <v>kt = (8.5000E-01, 7.5000E-01, 1.0000E+00, 1.0000E+00, 8.5000E-01, 1.0000E+00, 8.5000E-01, 7.5000E-01, 7.5000E-01, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 8.5000E-01, 8.5000E-01, 8.5000E-01, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 8.5000E-01, 8.5000E-01, 8.5000E-01, 1.0000E+00, 1.0000E+00, 8.5000E-01, 1.0000E+00, 7.5000E-01, 1.0000E+00, 8.5000E-01, 1.0000E+00, 1.0000E+00, 8.5000E-01, 8.5000E-01, 7.5000E-01, 7.5000E-01, 7.5000E-01, 8.5000E-01, 7.5000E-01, 7.5000E-01, 1.0000E+00, 8.5000E-01, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 8.5000E-01, 8.5000E-01, 8.5000E-01, 1.0000E+00, 1.0000E+00, 8.5000E-01, 1.0000E+00, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 1.0000E+00, 7.5000E-01, 7.5000E-01, 8.5000E-01, 8.5000E-01, 7.5000E-01, 8.5000E-01, 8.5000E-01, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00)</v>
       </c>
     </row>
@@ -10546,7 +10765,7 @@
         <v xml:space="preserve">3.0000E+08, 3.2000E+08, 2.8000E+08, 3.6000E+08, 3.2000E+08, 2.8000E+08, 3.2000E+08, 3.2000E+08, 3.0000E+08, 3.6000E+08, 3.2000E+08, 3.2000E+08, 2.8000E+08, 3.2000E+08, 3.2000E+08, 3.0000E+08, 2.8000E+08, 3.4000E+08, 3.0000E+08, 3.4000E+08, 2.8000E+08, 3.6000E+08, 3.4000E+08, 3.2000E+08, 3.2000E+08, 3.2000E+08, 3.4000E+08, 3.4000E+08, 3.2000E+08, 2.8000E+08, 3.2000E+08, 2.8000E+08, 3.2000E+08, 3.6000E+08, 2.8000E+08, 3.2000E+08, 3.4000E+08, 3.4000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.4000E+08, 3.6000E+08, 3.4000E+08, 3.4000E+08, 2.8000E+08, 3.0000E+08, 3.4000E+08, 2.8000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.4000E+08, 2.8000E+08, 3.6000E+08, 2.8000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 2.8000E+08, 3.4000E+08, 3.0000E+08, 3.8000E+08, 3.8000E+08, 3.6000E+08, 3.0000E+08, 3.6000E+08, 2.8000E+08, 3.0000E+08, 3.0000E+08, </v>
       </c>
       <c r="D87" s="3" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>fy = (3.0000E+08, 3.2000E+08, 2.8000E+08, 3.6000E+08, 3.2000E+08, 2.8000E+08, 3.2000E+08, 3.2000E+08, 3.0000E+08, 3.6000E+08, 3.2000E+08, 3.2000E+08, 2.8000E+08, 3.2000E+08, 3.2000E+08, 3.0000E+08, 2.8000E+08, 3.4000E+08, 3.0000E+08, 3.4000E+08, 2.8000E+08, 3.6000E+08, 3.4000E+08, 3.2000E+08, 3.2000E+08, 3.2000E+08, 3.4000E+08, 3.4000E+08, 3.2000E+08, 2.8000E+08, 3.2000E+08, 2.8000E+08, 3.2000E+08, 3.6000E+08, 2.8000E+08, 3.2000E+08, 3.4000E+08, 3.4000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.4000E+08, 3.6000E+08, 3.4000E+08, 3.4000E+08, 2.8000E+08, 3.0000E+08, 3.4000E+08, 2.8000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.4000E+08, 2.8000E+08, 3.6000E+08, 2.8000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 3.6000E+08, 2.8000E+08, 3.4000E+08, 3.0000E+08, 3.8000E+08, 3.8000E+08, 3.6000E+08, 3.0000E+08, 3.6000E+08, 2.8000E+08, 3.0000E+08, 3.0000E+08)</v>
       </c>
     </row>
@@ -10559,7 +10778,7 @@
         <v xml:space="preserve">4.4000E+08, 4.4000E+08, 4.3000E+08, 4.8000E+08, 4.4000E+08, 4.3000E+08, 4.4000E+08, 4.4000E+08, 4.4000E+08, 4.8000E+08, 4.4000E+08, 4.4000E+08, 4.4000E+08, 4.4000E+08, 4.4000E+08, 4.4000E+08, 4.4000E+08, 4.8000E+08, 4.4000E+08, 4.8000E+08, 4.4000E+08, 4.8000E+08, 4.8000E+08, 4.4000E+08, 4.4000E+08, 4.4000E+08, 4.8000E+08, 4.8000E+08, 4.4000E+08, 4.4000E+08, 4.4000E+08, 4.4000E+08, 4.4000E+08, 4.8000E+08, 4.3000E+08, 4.4000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.3000E+08, 4.3000E+08, 4.8000E+08, 4.3000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.3000E+08, 4.8000E+08, 4.3000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.4000E+08, 4.8000E+08, 4.3000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.3000E+08, 4.8000E+08, 4.3000E+08, 4.3000E+08, 4.3000E+08, </v>
       </c>
       <c r="D88" s="3" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>fu = (4.4000E+08, 4.4000E+08, 4.3000E+08, 4.8000E+08, 4.4000E+08, 4.3000E+08, 4.4000E+08, 4.4000E+08, 4.4000E+08, 4.8000E+08, 4.4000E+08, 4.4000E+08, 4.4000E+08, 4.4000E+08, 4.4000E+08, 4.4000E+08, 4.4000E+08, 4.8000E+08, 4.4000E+08, 4.8000E+08, 4.4000E+08, 4.8000E+08, 4.8000E+08, 4.4000E+08, 4.4000E+08, 4.4000E+08, 4.8000E+08, 4.8000E+08, 4.4000E+08, 4.4000E+08, 4.4000E+08, 4.4000E+08, 4.4000E+08, 4.8000E+08, 4.3000E+08, 4.4000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.3000E+08, 4.3000E+08, 4.8000E+08, 4.3000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.3000E+08, 4.8000E+08, 4.3000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.4000E+08, 4.8000E+08, 4.3000E+08, 4.8000E+08, 4.8000E+08, 4.8000E+08, 4.3000E+08, 4.8000E+08, 4.3000E+08, 4.3000E+08, 4.3000E+08)</v>
       </c>
     </row>
@@ -10572,7 +10791,7 @@
         <v xml:space="preserve">8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, </v>
       </c>
       <c r="D89" s="3" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Ultimate Uncertainty = (8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01, 8.5000E-01)</v>
       </c>
     </row>
@@ -10585,7 +10804,7 @@
         <v xml:space="preserve">9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, </v>
       </c>
       <c r="D90" s="3" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>φ = (9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01, 9.0000E-01)</v>
       </c>
     </row>
@@ -10595,11 +10814,11 @@
       </c>
       <c r="C91" s="6" t="str">
         <f t="array" aca="1" ref="C91" ca="1">_xlfn.CONCAT(IF(INDIRECT("tblArea["&amp;B91&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tblArea["&amp;B91&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
-        <v xml:space="preserve">3.0760E-01, 2.7891E-01, 1.3563E-02, 3.2568E-02, 7.5706E-02, 2.3491E-01, 1.1867E-03, 1.9118E-01, 1.9022E-03, 2.5533E-01, 2.5172E-01, 2.5268E-01, 1.0509E-01, 1.2002E-01, 2.7550E-01, 7.1198E-02, 1.3972E-01, 2.8883E-01, 2.8916E-01, 1.0139E-01, 2.7330E-01, 1.9747E-01, 2.5761E-01, 1.1901E-01, 2.8575E-01, 2.0916E-01, 2.0370E-01, 2.3890E-01, 1.4385E-01, 2.7977E-01, 2.8831E-01, 1.8227E-01, 1.4952E-01, 1.7964E-01, 4.6737E-02, 1.6318E-01, 2.8404E-01, 2.4724E-01, 1.2452E-01, 8.6731E-02, 5.0488E-02, 2.5636E-01, 2.3827E-01, 4.1324E-02, 2.0510E-01, 1.6232E-01, 9.0355E-02, 2.6145E-01, 1.9472E-02, 3.5079E-02, 7.2624E-02, 2.0727E-01, 2.5261E-01, 1.2149E-01, 2.3072E-01, 2.3623E-02, 3.0297E-01, 2.6662E-01, 1.0339E-01, 8.8101E-02, 1.8041E-01, 2.1454E-01, 2.6732E-01, 2.4995E-01, 2.1485E-01, 2.0834E-02, 2.6029E-01, 2.2653E-02, 2.1022E-01, 2.3357E-01, 3.4885E-01, 6.8278E-02, 1.0867E-01, 1.6270E-01, 8.3323E-02, 1.1547E-01, 1.3941E-01, 2.1085E-02, 6.5484E-02, 1.6910E-03, 1.4483E-02, </v>
+        <v xml:space="preserve">3.0875E-01, 1.2281E-01, 1.6367E-01, 2.3578E-01, 2.2067E-01, 1.8353E-01, 2.1711E-01, 2.2827E-01, 1.9705E-01, 2.3468E-01, 2.4813E-01, 1.9517E-01, 1.5296E-01, 1.3234E-01, 6.4713E-02, 3.2797E-02, 2.9361E-01, 7.5468E-02, 2.5466E-01, 1.7520E-01, 1.2194E-02, 4.1018E-02, 3.2727E-02, 3.2023E-02, 2.5378E-01, 2.7727E-01, 1.5930E-01, 1.2664E-01, 2.8865E-01, 3.1349E-01, 3.0963E-01, 1.3277E-01, 1.2747E-01, 1.1443E-01, 2.6292E-01, 1.4219E-02, 2.4092E-01, 1.8017E-01, 1.3042E-01, 5.6441E-02, 1.2397E-01, 1.0944E-01, 1.5146E-01, 2.2393E-01, 1.6992E-01, 2.4914E-01, 2.7781E-02, 6.5786E-02, 1.4318E-01, 5.1423E-02, 1.1959E-01, 2.0255E-01, 1.5898E-01, 2.4989E-01, 2.2226E-01, 8.2463E-02, 2.1343E-01, 1.6077E-01, 5.6473E-02, 2.5144E-01, 2.0838E-01, 1.0021E-01, 1.2509E-01, 2.3243E-01, 1.2982E-01, 1.1286E-01, 1.7631E-01, 2.1287E-03, 9.3778E-03, 1.7647E-01, 2.3947E-01, 1.6979E-02, 9.5095E-02, 3.3179E-02, 1.7689E-01, 2.7140E-01, 2.2568E-01, 2.2173E-01, 6.3250E-02, 6.6431E-02, 6.9592E-02, </v>
       </c>
       <c r="D91" s="3" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ag = (3.0760E-01, 2.7891E-01, 1.3563E-02, 3.2568E-02, 7.5706E-02, 2.3491E-01, 1.1867E-03, 1.9118E-01, 1.9022E-03, 2.5533E-01, 2.5172E-01, 2.5268E-01, 1.0509E-01, 1.2002E-01, 2.7550E-01, 7.1198E-02, 1.3972E-01, 2.8883E-01, 2.8916E-01, 1.0139E-01, 2.7330E-01, 1.9747E-01, 2.5761E-01, 1.1901E-01, 2.8575E-01, 2.0916E-01, 2.0370E-01, 2.3890E-01, 1.4385E-01, 2.7977E-01, 2.8831E-01, 1.8227E-01, 1.4952E-01, 1.7964E-01, 4.6737E-02, 1.6318E-01, 2.8404E-01, 2.4724E-01, 1.2452E-01, 8.6731E-02, 5.0488E-02, 2.5636E-01, 2.3827E-01, 4.1324E-02, 2.0510E-01, 1.6232E-01, 9.0355E-02, 2.6145E-01, 1.9472E-02, 3.5079E-02, 7.2624E-02, 2.0727E-01, 2.5261E-01, 1.2149E-01, 2.3072E-01, 2.3623E-02, 3.0297E-01, 2.6662E-01, 1.0339E-01, 8.8101E-02, 1.8041E-01, 2.1454E-01, 2.6732E-01, 2.4995E-01, 2.1485E-01, 2.0834E-02, 2.6029E-01, 2.2653E-02, 2.1022E-01, 2.3357E-01, 3.4885E-01, 6.8278E-02, 1.0867E-01, 1.6270E-01, 8.3323E-02, 1.1547E-01, 1.3941E-01, 2.1085E-02, 6.5484E-02, 1.6910E-03, 1.4483E-02)</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Ag = (3.0875E-01, 1.2281E-01, 1.6367E-01, 2.3578E-01, 2.2067E-01, 1.8353E-01, 2.1711E-01, 2.2827E-01, 1.9705E-01, 2.3468E-01, 2.4813E-01, 1.9517E-01, 1.5296E-01, 1.3234E-01, 6.4713E-02, 3.2797E-02, 2.9361E-01, 7.5468E-02, 2.5466E-01, 1.7520E-01, 1.2194E-02, 4.1018E-02, 3.2727E-02, 3.2023E-02, 2.5378E-01, 2.7727E-01, 1.5930E-01, 1.2664E-01, 2.8865E-01, 3.1349E-01, 3.0963E-01, 1.3277E-01, 1.2747E-01, 1.1443E-01, 2.6292E-01, 1.4219E-02, 2.4092E-01, 1.8017E-01, 1.3042E-01, 5.6441E-02, 1.2397E-01, 1.0944E-01, 1.5146E-01, 2.2393E-01, 1.6992E-01, 2.4914E-01, 2.7781E-02, 6.5786E-02, 1.4318E-01, 5.1423E-02, 1.1959E-01, 2.0255E-01, 1.5898E-01, 2.4989E-01, 2.2226E-01, 8.2463E-02, 2.1343E-01, 1.6077E-01, 5.6473E-02, 2.5144E-01, 2.0838E-01, 1.0021E-01, 1.2509E-01, 2.3243E-01, 1.2982E-01, 1.1286E-01, 1.7631E-01, 2.1287E-03, 9.3778E-03, 1.7647E-01, 2.3947E-01, 1.6979E-02, 9.5095E-02, 3.3179E-02, 1.7689E-01, 2.7140E-01, 2.2568E-01, 2.2173E-01, 6.3250E-02, 6.6431E-02, 6.9592E-02)</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.2">
@@ -10608,11 +10827,11 @@
       </c>
       <c r="C92" s="6" t="str">
         <f t="array" aca="1" ref="C92" ca="1">_xlfn.CONCAT(IF(INDIRECT("tblArea["&amp;B92&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tblArea["&amp;B92&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
-        <v xml:space="preserve">2.9028E-01, 3.1818E-01, 1.0390E-02, 2.8737E-02, 7.6206E-02, 1.7996E-01, 1.1945E-03, 2.1810E-01, 2.0344E-03, 2.2529E-01, 2.1537E-01, 2.1620E-01, 7.8678E-02, 1.2081E-01, 2.7732E-01, 6.7189E-02, 1.0460E-01, 2.4069E-01, 2.3194E-01, 8.4492E-02, 2.0461E-01, 1.7424E-01, 2.1468E-01, 1.1979E-01, 2.8764E-01, 2.1054E-01, 1.6975E-01, 1.9908E-01, 1.4480E-01, 2.0946E-01, 3.2891E-01, 1.3646E-01, 1.5051E-01, 1.5850E-01, 3.5804E-02, 1.6426E-01, 2.7847E-01, 2.7471E-01, 1.4649E-01, 1.0204E-01, 5.2410E-02, 2.8485E-01, 2.8032E-01, 3.4437E-02, 2.0107E-01, 1.2435E-01, 7.4163E-02, 2.1788E-01, 1.4917E-02, 3.0952E-02, 7.5389E-02, 2.1516E-01, 2.6223E-01, 1.0124E-01, 1.7675E-01, 2.4522E-02, 2.3209E-01, 2.7676E-01, 1.0732E-01, 9.1455E-02, 1.8728E-01, 1.8930E-01, 3.1450E-01, 2.9405E-01, 2.2303E-01, 2.1627E-02, 3.0622E-01, 2.3516E-02, 2.1822E-01, 2.0610E-01, 2.6117E-01, 5.6899E-02, 8.9196E-02, 1.5154E-01, 7.7604E-02, 1.0189E-01, 1.1443E-01, 1.8605E-02, 5.0166E-02, 1.3879E-03, 1.1887E-02, </v>
+        <v xml:space="preserve">2.9137E-01, 1.4010E-01, 1.2539E-01, 2.0804E-01, 2.2213E-01, 1.4060E-01, 2.1854E-01, 2.6041E-01, 2.1075E-01, 2.0707E-01, 2.1230E-01, 1.6699E-01, 1.1452E-01, 1.3322E-01, 6.5140E-02, 3.0951E-02, 2.1981E-01, 6.2890E-02, 2.0427E-01, 1.4600E-01, 9.1288E-03, 3.6192E-02, 2.7272E-02, 3.2234E-02, 2.5546E-01, 2.7910E-01, 1.3275E-01, 1.0554E-01, 2.9056E-01, 2.3470E-01, 3.5323E-01, 9.9399E-02, 1.2831E-01, 1.0096E-01, 2.0141E-01, 1.4313E-02, 2.3620E-01, 2.0019E-01, 1.5343E-01, 6.6401E-02, 1.2869E-01, 1.2160E-01, 1.7818E-01, 1.8661E-01, 1.6659E-01, 1.9086E-01, 2.2803E-02, 5.4822E-02, 1.0969E-01, 4.5373E-02, 1.2414E-01, 2.1026E-01, 1.6503E-01, 2.0824E-01, 1.7026E-01, 8.5602E-02, 1.6350E-01, 1.6689E-01, 5.8623E-02, 2.6101E-01, 2.1631E-01, 8.8418E-02, 1.4717E-01, 2.7345E-01, 1.3476E-01, 1.1715E-01, 2.0743E-01, 2.2098E-03, 9.7347E-03, 1.5570E-01, 1.7928E-01, 1.4149E-02, 7.8054E-02, 3.0902E-02, 1.6475E-01, 2.3947E-01, 1.8524E-01, 1.9564E-01, 4.8454E-02, 5.4526E-02, 5.7121E-02, </v>
       </c>
       <c r="D92" s="3" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>An = (2.9028E-01, 3.1818E-01, 1.0390E-02, 2.8737E-02, 7.6206E-02, 1.7996E-01, 1.1945E-03, 2.1810E-01, 2.0344E-03, 2.2529E-01, 2.1537E-01, 2.1620E-01, 7.8678E-02, 1.2081E-01, 2.7732E-01, 6.7189E-02, 1.0460E-01, 2.4069E-01, 2.3194E-01, 8.4492E-02, 2.0461E-01, 1.7424E-01, 2.1468E-01, 1.1979E-01, 2.8764E-01, 2.1054E-01, 1.6975E-01, 1.9908E-01, 1.4480E-01, 2.0946E-01, 3.2891E-01, 1.3646E-01, 1.5051E-01, 1.5850E-01, 3.5804E-02, 1.6426E-01, 2.7847E-01, 2.7471E-01, 1.4649E-01, 1.0204E-01, 5.2410E-02, 2.8485E-01, 2.8032E-01, 3.4437E-02, 2.0107E-01, 1.2435E-01, 7.4163E-02, 2.1788E-01, 1.4917E-02, 3.0952E-02, 7.5389E-02, 2.1516E-01, 2.6223E-01, 1.0124E-01, 1.7675E-01, 2.4522E-02, 2.3209E-01, 2.7676E-01, 1.0732E-01, 9.1455E-02, 1.8728E-01, 1.8930E-01, 3.1450E-01, 2.9405E-01, 2.2303E-01, 2.1627E-02, 3.0622E-01, 2.3516E-02, 2.1822E-01, 2.0610E-01, 2.6117E-01, 5.6899E-02, 8.9196E-02, 1.5154E-01, 7.7604E-02, 1.0189E-01, 1.1443E-01, 1.8605E-02, 5.0166E-02, 1.3879E-03, 1.1887E-02)</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>An = (2.9137E-01, 1.4010E-01, 1.2539E-01, 2.0804E-01, 2.2213E-01, 1.4060E-01, 2.1854E-01, 2.6041E-01, 2.1075E-01, 2.0707E-01, 2.1230E-01, 1.6699E-01, 1.1452E-01, 1.3322E-01, 6.5140E-02, 3.0951E-02, 2.1981E-01, 6.2890E-02, 2.0427E-01, 1.4600E-01, 9.1288E-03, 3.6192E-02, 2.7272E-02, 3.2234E-02, 2.5546E-01, 2.7910E-01, 1.3275E-01, 1.0554E-01, 2.9056E-01, 2.3470E-01, 3.5323E-01, 9.9399E-02, 1.2831E-01, 1.0096E-01, 2.0141E-01, 1.4313E-02, 2.3620E-01, 2.0019E-01, 1.5343E-01, 6.6401E-02, 1.2869E-01, 1.2160E-01, 1.7818E-01, 1.8661E-01, 1.6659E-01, 1.9086E-01, 2.2803E-02, 5.4822E-02, 1.0969E-01, 4.5373E-02, 1.2414E-01, 2.1026E-01, 1.6503E-01, 2.0824E-01, 1.7026E-01, 8.5602E-02, 1.6350E-01, 1.6689E-01, 5.8623E-02, 2.6101E-01, 2.1631E-01, 8.8418E-02, 1.4717E-01, 2.7345E-01, 1.3476E-01, 1.1715E-01, 2.0743E-01, 2.2098E-03, 9.7347E-03, 1.5570E-01, 1.7928E-01, 1.4149E-02, 7.8054E-02, 3.0902E-02, 1.6475E-01, 2.3947E-01, 1.8524E-01, 1.9564E-01, 4.8454E-02, 5.4526E-02, 5.7121E-02)</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.2">
@@ -10621,11 +10840,11 @@
       </c>
       <c r="C93" s="6" t="str">
         <f t="array" aca="1" ref="C93" ca="1">_xlfn.CONCAT(IF(INDIRECT("tblArea["&amp;B93&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tblArea["&amp;B93&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
-        <v xml:space="preserve">3.0760E-01, 3.1818E-01, 1.3563E-02, 3.2568E-02, 7.6206E-02, 2.3491E-01, 1.1945E-03, 2.1810E-01, 2.0344E-03, 2.5533E-01, 2.5172E-01, 2.5268E-01, 1.0509E-01, 1.2081E-01, 2.7732E-01, 7.1198E-02, 1.3972E-01, 2.8883E-01, 2.8916E-01, 1.0139E-01, 2.7330E-01, 1.9747E-01, 2.5761E-01, 1.1979E-01, 2.8764E-01, 2.1054E-01, 2.0370E-01, 2.3890E-01, 1.4480E-01, 2.7977E-01, 3.2891E-01, 1.8227E-01, 1.5051E-01, 1.7964E-01, 4.6737E-02, 1.6426E-01, 2.8404E-01, 2.7471E-01, 1.4649E-01, 1.0204E-01, 5.2410E-02, 2.8485E-01, 2.8032E-01, 4.1324E-02, 2.0510E-01, 1.6232E-01, 9.0355E-02, 2.6145E-01, 1.9472E-02, 3.5079E-02, 7.5389E-02, 2.1516E-01, 2.6223E-01, 1.2149E-01, 2.3072E-01, 2.4522E-02, 3.0297E-01, 2.7676E-01, 1.0732E-01, 9.1455E-02, 1.8728E-01, 2.1454E-01, 3.1450E-01, 2.9405E-01, 2.2303E-01, 2.1627E-02, 3.0622E-01, 2.3516E-02, 2.1822E-01, 2.3357E-01, 3.4885E-01, 6.8278E-02, 1.0867E-01, 1.6270E-01, 8.3323E-02, 1.1547E-01, 1.3941E-01, 2.1085E-02, 6.5484E-02, 1.6910E-03, 1.4483E-02, </v>
+        <v xml:space="preserve">3.0875E-01, 1.4010E-01, 1.6367E-01, 2.3578E-01, 2.2213E-01, 1.8353E-01, 2.1854E-01, 2.6041E-01, 2.1075E-01, 2.3468E-01, 2.4813E-01, 1.9517E-01, 1.5296E-01, 1.3322E-01, 6.5140E-02, 3.2797E-02, 2.9361E-01, 7.5468E-02, 2.5466E-01, 1.7520E-01, 1.2194E-02, 4.1018E-02, 3.2727E-02, 3.2234E-02, 2.5546E-01, 2.7910E-01, 1.5930E-01, 1.2664E-01, 2.9056E-01, 3.1349E-01, 3.5323E-01, 1.3277E-01, 1.2831E-01, 1.1443E-01, 2.6292E-01, 1.4313E-02, 2.4092E-01, 2.0019E-01, 1.5343E-01, 6.6401E-02, 1.2869E-01, 1.2160E-01, 1.7818E-01, 2.2393E-01, 1.6992E-01, 2.4914E-01, 2.7781E-02, 6.5786E-02, 1.4318E-01, 5.1423E-02, 1.2414E-01, 2.1026E-01, 1.6503E-01, 2.4989E-01, 2.2226E-01, 8.5602E-02, 2.1343E-01, 1.6689E-01, 5.8623E-02, 2.6101E-01, 2.1631E-01, 1.0021E-01, 1.4717E-01, 2.7345E-01, 1.3476E-01, 1.1715E-01, 2.0743E-01, 2.2098E-03, 9.7347E-03, 1.7647E-01, 2.3947E-01, 1.6979E-02, 9.5095E-02, 3.3179E-02, 1.7689E-01, 2.7140E-01, 2.2568E-01, 2.2173E-01, 6.3250E-02, 6.6431E-02, 6.9592E-02, </v>
       </c>
       <c r="D93" s="3" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>A = (3.0760E-01, 3.1818E-01, 1.3563E-02, 3.2568E-02, 7.6206E-02, 2.3491E-01, 1.1945E-03, 2.1810E-01, 2.0344E-03, 2.5533E-01, 2.5172E-01, 2.5268E-01, 1.0509E-01, 1.2081E-01, 2.7732E-01, 7.1198E-02, 1.3972E-01, 2.8883E-01, 2.8916E-01, 1.0139E-01, 2.7330E-01, 1.9747E-01, 2.5761E-01, 1.1979E-01, 2.8764E-01, 2.1054E-01, 2.0370E-01, 2.3890E-01, 1.4480E-01, 2.7977E-01, 3.2891E-01, 1.8227E-01, 1.5051E-01, 1.7964E-01, 4.6737E-02, 1.6426E-01, 2.8404E-01, 2.7471E-01, 1.4649E-01, 1.0204E-01, 5.2410E-02, 2.8485E-01, 2.8032E-01, 4.1324E-02, 2.0510E-01, 1.6232E-01, 9.0355E-02, 2.6145E-01, 1.9472E-02, 3.5079E-02, 7.5389E-02, 2.1516E-01, 2.6223E-01, 1.2149E-01, 2.3072E-01, 2.4522E-02, 3.0297E-01, 2.7676E-01, 1.0732E-01, 9.1455E-02, 1.8728E-01, 2.1454E-01, 3.1450E-01, 2.9405E-01, 2.2303E-01, 2.1627E-02, 3.0622E-01, 2.3516E-02, 2.1822E-01, 2.3357E-01, 3.4885E-01, 6.8278E-02, 1.0867E-01, 1.6270E-01, 8.3323E-02, 1.1547E-01, 1.3941E-01, 2.1085E-02, 6.5484E-02, 1.6910E-03, 1.4483E-02)</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>A = (3.0875E-01, 1.4010E-01, 1.6367E-01, 2.3578E-01, 2.2213E-01, 1.8353E-01, 2.1854E-01, 2.6041E-01, 2.1075E-01, 2.3468E-01, 2.4813E-01, 1.9517E-01, 1.5296E-01, 1.3322E-01, 6.5140E-02, 3.2797E-02, 2.9361E-01, 7.5468E-02, 2.5466E-01, 1.7520E-01, 1.2194E-02, 4.1018E-02, 3.2727E-02, 3.2234E-02, 2.5546E-01, 2.7910E-01, 1.5930E-01, 1.2664E-01, 2.9056E-01, 3.1349E-01, 3.5323E-01, 1.3277E-01, 1.2831E-01, 1.1443E-01, 2.6292E-01, 1.4313E-02, 2.4092E-01, 2.0019E-01, 1.5343E-01, 6.6401E-02, 1.2869E-01, 1.2160E-01, 1.7818E-01, 2.2393E-01, 1.6992E-01, 2.4914E-01, 2.7781E-02, 6.5786E-02, 1.4318E-01, 5.1423E-02, 1.2414E-01, 2.1026E-01, 1.6503E-01, 2.4989E-01, 2.2226E-01, 8.5602E-02, 2.1343E-01, 1.6689E-01, 5.8623E-02, 2.6101E-01, 2.1631E-01, 1.0021E-01, 1.4717E-01, 2.7345E-01, 1.3476E-01, 1.1715E-01, 2.0743E-01, 2.2098E-03, 9.7347E-03, 1.7647E-01, 2.3947E-01, 1.6979E-02, 9.5095E-02, 3.3179E-02, 1.7689E-01, 2.7140E-01, 2.2568E-01, 2.2173E-01, 6.3250E-02, 6.6431E-02, 6.9592E-02)</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.2">
@@ -10634,11 +10853,11 @@
       </c>
       <c r="C94" s="6" t="str">
         <f t="array" aca="1" ref="C94" ca="1">_xlfn.CONCAT(IF(INDIRECT("tblArea["&amp;B94&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tblArea["&amp;B94&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
-        <v xml:space="preserve">3.4178E-01, 3.0990E-01, 1.5070E-02, 3.6187E-02, 8.4117E-02, 2.6101E-01, 1.3186E-03, 2.1242E-01, 2.1135E-03, 2.8370E-01, 2.7968E-01, 2.8076E-01, 1.1677E-01, 1.3335E-01, 3.0611E-01, 7.9109E-02, 1.5524E-01, 3.2092E-01, 3.2128E-01, 1.1266E-01, 3.0366E-01, 2.1941E-01, 2.8624E-01, 1.3223E-01, 3.1750E-01, 2.3240E-01, 2.2634E-01, 2.6544E-01, 1.5983E-01, 3.1086E-01, 3.2035E-01, 2.0252E-01, 1.6614E-01, 1.9960E-01, 5.1930E-02, 1.8131E-01, 3.1560E-01, 2.7471E-01, 1.3835E-01, 9.6368E-02, 5.6098E-02, 2.8485E-01, 2.6475E-01, 4.5915E-02, 2.2788E-01, 1.8035E-01, 1.0039E-01, 2.9050E-01, 2.1635E-02, 3.8976E-02, 8.0694E-02, 2.3030E-01, 2.8068E-01, 1.3499E-01, 2.5636E-01, 2.6247E-02, 3.3663E-01, 2.9624E-01, 1.1488E-01, 9.7890E-02, 2.0046E-01, 2.3837E-01, 2.9703E-01, 2.7772E-01, 2.3872E-01, 2.3148E-02, 2.8921E-01, 2.5170E-02, 2.3358E-01, 2.5953E-01, 3.8761E-01, 7.5865E-02, 1.2074E-01, 1.8078E-01, 9.2581E-02, 1.2830E-01, 1.5491E-01, 2.3428E-02, 7.2761E-02, 1.8788E-03, 1.6092E-02, </v>
+        <v xml:space="preserve">3.4306E-01, 1.3646E-01, 1.8186E-01, 2.6198E-01, 2.4519E-01, 2.0392E-01, 2.4123E-01, 2.5363E-01, 2.1894E-01, 2.6075E-01, 2.7570E-01, 2.1686E-01, 1.6996E-01, 1.4705E-01, 7.1903E-02, 3.6442E-02, 3.2623E-01, 8.3854E-02, 2.8295E-01, 1.9467E-01, 1.3548E-02, 4.5575E-02, 3.6363E-02, 3.5581E-02, 2.8198E-01, 3.0807E-01, 1.7700E-01, 1.4072E-01, 3.2072E-01, 3.4833E-01, 3.4404E-01, 1.4752E-01, 1.4164E-01, 1.2714E-01, 2.9213E-01, 1.5799E-02, 2.6769E-01, 2.0019E-01, 1.4491E-01, 6.2712E-02, 1.3775E-01, 1.2160E-01, 1.6828E-01, 2.4881E-01, 1.8880E-01, 2.7683E-01, 3.0868E-02, 7.3096E-02, 1.5909E-01, 5.7136E-02, 1.3288E-01, 2.2506E-01, 1.7664E-01, 2.7765E-01, 2.4695E-01, 9.1626E-02, 2.3715E-01, 1.7864E-01, 6.2748E-02, 2.7937E-01, 2.3153E-01, 1.1134E-01, 1.3899E-01, 2.5825E-01, 1.4424E-01, 1.2540E-01, 1.9591E-01, 2.3653E-03, 1.0420E-02, 1.9607E-01, 2.6608E-01, 1.8866E-02, 1.0566E-01, 3.6865E-02, 1.9655E-01, 3.0155E-01, 2.5076E-01, 2.4636E-01, 7.0278E-02, 7.3813E-02, 7.7325E-02, </v>
       </c>
       <c r="D94" s="3" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>φAg = (3.4178E-01, 3.0990E-01, 1.5070E-02, 3.6187E-02, 8.4117E-02, 2.6101E-01, 1.3186E-03, 2.1242E-01, 2.1135E-03, 2.8370E-01, 2.7968E-01, 2.8076E-01, 1.1677E-01, 1.3335E-01, 3.0611E-01, 7.9109E-02, 1.5524E-01, 3.2092E-01, 3.2128E-01, 1.1266E-01, 3.0366E-01, 2.1941E-01, 2.8624E-01, 1.3223E-01, 3.1750E-01, 2.3240E-01, 2.2634E-01, 2.6544E-01, 1.5983E-01, 3.1086E-01, 3.2035E-01, 2.0252E-01, 1.6614E-01, 1.9960E-01, 5.1930E-02, 1.8131E-01, 3.1560E-01, 2.7471E-01, 1.3835E-01, 9.6368E-02, 5.6098E-02, 2.8485E-01, 2.6475E-01, 4.5915E-02, 2.2788E-01, 1.8035E-01, 1.0039E-01, 2.9050E-01, 2.1635E-02, 3.8976E-02, 8.0694E-02, 2.3030E-01, 2.8068E-01, 1.3499E-01, 2.5636E-01, 2.6247E-02, 3.3663E-01, 2.9624E-01, 1.1488E-01, 9.7890E-02, 2.0046E-01, 2.3837E-01, 2.9703E-01, 2.7772E-01, 2.3872E-01, 2.3148E-02, 2.8921E-01, 2.5170E-02, 2.3358E-01, 2.5953E-01, 3.8761E-01, 7.5865E-02, 1.2074E-01, 1.8078E-01, 9.2581E-02, 1.2830E-01, 1.5491E-01, 2.3428E-02, 7.2761E-02, 1.8788E-03, 1.6092E-02)</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>φAg = (3.4306E-01, 1.3646E-01, 1.8186E-01, 2.6198E-01, 2.4519E-01, 2.0392E-01, 2.4123E-01, 2.5363E-01, 2.1894E-01, 2.6075E-01, 2.7570E-01, 2.1686E-01, 1.6996E-01, 1.4705E-01, 7.1903E-02, 3.6442E-02, 3.2623E-01, 8.3854E-02, 2.8295E-01, 1.9467E-01, 1.3548E-02, 4.5575E-02, 3.6363E-02, 3.5581E-02, 2.8198E-01, 3.0807E-01, 1.7700E-01, 1.4072E-01, 3.2072E-01, 3.4833E-01, 3.4404E-01, 1.4752E-01, 1.4164E-01, 1.2714E-01, 2.9213E-01, 1.5799E-02, 2.6769E-01, 2.0019E-01, 1.4491E-01, 6.2712E-02, 1.3775E-01, 1.2160E-01, 1.6828E-01, 2.4881E-01, 1.8880E-01, 2.7683E-01, 3.0868E-02, 7.3096E-02, 1.5909E-01, 5.7136E-02, 1.3288E-01, 2.2506E-01, 1.7664E-01, 2.7765E-01, 2.4695E-01, 9.1626E-02, 2.3715E-01, 1.7864E-01, 6.2748E-02, 2.7937E-01, 2.3153E-01, 1.1134E-01, 1.3899E-01, 2.5825E-01, 1.4424E-01, 1.2540E-01, 1.9591E-01, 2.3653E-03, 1.0420E-02, 1.9607E-01, 2.6608E-01, 1.8866E-02, 1.0566E-01, 3.6865E-02, 1.9655E-01, 3.0155E-01, 2.5076E-01, 2.4636E-01, 7.0278E-02, 7.3813E-02, 7.7325E-02)</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.2">
@@ -10647,11 +10866,11 @@
       </c>
       <c r="C95" s="6" t="str">
         <f t="array" aca="1" ref="C95" ca="1">_xlfn.CONCAT(IF(INDIRECT("tblArea["&amp;B95&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tblArea["&amp;B95&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
-        <v xml:space="preserve">3.2254E-01, 3.5354E-01, 1.1544E-02, 3.1929E-02, 8.4673E-02, 1.9995E-01, 1.3273E-03, 2.4233E-01, 2.2604E-03, 2.5032E-01, 2.3930E-01, 2.4022E-01, 8.7420E-02, 1.3423E-01, 3.0813E-01, 7.4654E-02, 1.1622E-01, 2.6744E-01, 2.5771E-01, 9.3880E-02, 2.2734E-01, 1.9360E-01, 2.3853E-01, 1.3311E-01, 3.1960E-01, 2.3393E-01, 1.8861E-01, 2.2120E-01, 1.6089E-01, 2.3273E-01, 3.6546E-01, 1.5162E-01, 1.6723E-01, 1.7611E-01, 3.9782E-02, 1.8251E-01, 3.0941E-01, 3.0524E-01, 1.6277E-01, 1.1337E-01, 5.8233E-02, 3.1650E-01, 3.1147E-01, 3.8263E-02, 2.2342E-01, 1.3816E-01, 8.2403E-02, 2.4209E-01, 1.6574E-02, 3.4391E-02, 8.3765E-02, 2.3907E-01, 2.9136E-01, 1.1249E-01, 1.9639E-01, 2.7246E-02, 2.5788E-01, 3.0752E-01, 1.1925E-01, 1.0162E-01, 2.0809E-01, 2.1033E-01, 3.4944E-01, 3.2673E-01, 2.4781E-01, 2.4030E-02, 3.4025E-01, 2.6128E-02, 2.4247E-01, 2.2899E-01, 2.9019E-01, 6.3221E-02, 9.9107E-02, 1.6838E-01, 8.6227E-02, 1.1321E-01, 1.2715E-01, 2.0672E-02, 5.5740E-02, 1.5421E-03, 1.3208E-02, </v>
+        <v xml:space="preserve">3.2374E-01, 1.5567E-01, 1.3932E-01, 2.3116E-01, 2.4681E-01, 1.5622E-01, 2.4283E-01, 2.8934E-01, 2.3416E-01, 2.3008E-01, 2.3589E-01, 1.8555E-01, 1.2724E-01, 1.4802E-01, 7.2378E-02, 3.4390E-02, 2.4424E-01, 6.9878E-02, 2.2697E-01, 1.6222E-01, 1.0143E-02, 4.0213E-02, 3.0303E-02, 3.5816E-02, 2.8384E-01, 3.1011E-01, 1.4750E-01, 1.1726E-01, 3.2284E-01, 2.6078E-01, 3.9248E-01, 1.1044E-01, 1.4257E-01, 1.1218E-01, 2.2379E-01, 1.5903E-02, 2.6244E-01, 2.2244E-01, 1.7048E-01, 7.3779E-02, 1.4299E-01, 1.3511E-01, 1.9798E-01, 2.0734E-01, 1.8510E-01, 2.1207E-01, 2.5336E-02, 6.0913E-02, 1.2188E-01, 5.0415E-02, 1.3794E-01, 2.3363E-01, 1.8337E-01, 2.3138E-01, 1.8918E-01, 9.5113E-02, 1.8167E-01, 1.8544E-01, 6.5136E-02, 2.9001E-01, 2.4034E-01, 9.8242E-02, 1.6352E-01, 3.0383E-01, 1.4973E-01, 1.3017E-01, 2.3048E-01, 2.4553E-03, 1.0816E-02, 1.7301E-01, 1.9920E-01, 1.5722E-02, 8.6726E-02, 3.4335E-02, 1.8306E-01, 2.6607E-01, 2.0582E-01, 2.1738E-01, 5.3838E-02, 6.0585E-02, 6.3468E-02, </v>
       </c>
       <c r="D95" s="3" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>φAn = (3.2254E-01, 3.5354E-01, 1.1544E-02, 3.1929E-02, 8.4673E-02, 1.9995E-01, 1.3273E-03, 2.4233E-01, 2.2604E-03, 2.5032E-01, 2.3930E-01, 2.4022E-01, 8.7420E-02, 1.3423E-01, 3.0813E-01, 7.4654E-02, 1.1622E-01, 2.6744E-01, 2.5771E-01, 9.3880E-02, 2.2734E-01, 1.9360E-01, 2.3853E-01, 1.3311E-01, 3.1960E-01, 2.3393E-01, 1.8861E-01, 2.2120E-01, 1.6089E-01, 2.3273E-01, 3.6546E-01, 1.5162E-01, 1.6723E-01, 1.7611E-01, 3.9782E-02, 1.8251E-01, 3.0941E-01, 3.0524E-01, 1.6277E-01, 1.1337E-01, 5.8233E-02, 3.1650E-01, 3.1147E-01, 3.8263E-02, 2.2342E-01, 1.3816E-01, 8.2403E-02, 2.4209E-01, 1.6574E-02, 3.4391E-02, 8.3765E-02, 2.3907E-01, 2.9136E-01, 1.1249E-01, 1.9639E-01, 2.7246E-02, 2.5788E-01, 3.0752E-01, 1.1925E-01, 1.0162E-01, 2.0809E-01, 2.1033E-01, 3.4944E-01, 3.2673E-01, 2.4781E-01, 2.4030E-02, 3.4025E-01, 2.6128E-02, 2.4247E-01, 2.2899E-01, 2.9019E-01, 6.3221E-02, 9.9107E-02, 1.6838E-01, 8.6227E-02, 1.1321E-01, 1.2715E-01, 2.0672E-02, 5.5740E-02, 1.5421E-03, 1.3208E-02)</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>φAn = (3.2374E-01, 1.5567E-01, 1.3932E-01, 2.3116E-01, 2.4681E-01, 1.5622E-01, 2.4283E-01, 2.8934E-01, 2.3416E-01, 2.3008E-01, 2.3589E-01, 1.8555E-01, 1.2724E-01, 1.4802E-01, 7.2378E-02, 3.4390E-02, 2.4424E-01, 6.9878E-02, 2.2697E-01, 1.6222E-01, 1.0143E-02, 4.0213E-02, 3.0303E-02, 3.5816E-02, 2.8384E-01, 3.1011E-01, 1.4750E-01, 1.1726E-01, 3.2284E-01, 2.6078E-01, 3.9248E-01, 1.1044E-01, 1.4257E-01, 1.1218E-01, 2.2379E-01, 1.5903E-02, 2.6244E-01, 2.2244E-01, 1.7048E-01, 7.3779E-02, 1.4299E-01, 1.3511E-01, 1.9798E-01, 2.0734E-01, 1.8510E-01, 2.1207E-01, 2.5336E-02, 6.0913E-02, 1.2188E-01, 5.0415E-02, 1.3794E-01, 2.3363E-01, 1.8337E-01, 2.3138E-01, 1.8918E-01, 9.5113E-02, 1.8167E-01, 1.8544E-01, 6.5136E-02, 2.9001E-01, 2.4034E-01, 9.8242E-02, 1.6352E-01, 3.0383E-01, 1.4973E-01, 1.3017E-01, 2.3048E-01, 2.4553E-03, 1.0816E-02, 1.7301E-01, 1.9920E-01, 1.5722E-02, 8.6726E-02, 3.4335E-02, 1.8306E-01, 2.6607E-01, 2.0582E-01, 2.1738E-01, 5.3838E-02, 6.0585E-02, 6.3468E-02)</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.2">
@@ -10660,11 +10879,11 @@
       </c>
       <c r="C96" s="6" t="str">
         <f t="array" aca="1" ref="C96" ca="1">_xlfn.CONCAT(IF(INDIRECT("tblArea["&amp;B96&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tblArea["&amp;B96&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
-        <v xml:space="preserve">3.4178E-01, 3.5354E-01, 1.5070E-02, 3.6187E-02, 8.4673E-02, 2.6101E-01, 1.3273E-03, 2.4233E-01, 2.2604E-03, 2.8370E-01, 2.7968E-01, 2.8076E-01, 1.1677E-01, 1.3423E-01, 3.0813E-01, 7.9109E-02, 1.5524E-01, 3.2092E-01, 3.2128E-01, 1.1266E-01, 3.0366E-01, 2.1941E-01, 2.8624E-01, 1.3311E-01, 3.1960E-01, 2.3393E-01, 2.2634E-01, 2.6544E-01, 1.6089E-01, 3.1086E-01, 3.6546E-01, 2.0252E-01, 1.6723E-01, 1.9960E-01, 5.1930E-02, 1.8251E-01, 3.1560E-01, 3.0524E-01, 1.6277E-01, 1.1337E-01, 5.8233E-02, 3.1650E-01, 3.1147E-01, 4.5915E-02, 2.2788E-01, 1.8035E-01, 1.0039E-01, 2.9050E-01, 2.1635E-02, 3.8976E-02, 8.3765E-02, 2.3907E-01, 2.9136E-01, 1.3499E-01, 2.5636E-01, 2.7246E-02, 3.3663E-01, 3.0752E-01, 1.1925E-01, 1.0162E-01, 2.0809E-01, 2.3837E-01, 3.4944E-01, 3.2673E-01, 2.4781E-01, 2.4030E-02, 3.4025E-01, 2.6128E-02, 2.4247E-01, 2.5953E-01, 3.8761E-01, 7.5865E-02, 1.2074E-01, 1.8078E-01, 9.2581E-02, 1.2830E-01, 1.5491E-01, 2.3428E-02, 7.2761E-02, 1.8788E-03, 1.6092E-02, </v>
+        <v xml:space="preserve">3.4306E-01, 1.5567E-01, 1.8186E-01, 2.6198E-01, 2.4681E-01, 2.0392E-01, 2.4283E-01, 2.8934E-01, 2.3416E-01, 2.6075E-01, 2.7570E-01, 2.1686E-01, 1.6996E-01, 1.4802E-01, 7.2378E-02, 3.6442E-02, 3.2623E-01, 8.3854E-02, 2.8295E-01, 1.9467E-01, 1.3548E-02, 4.5575E-02, 3.6363E-02, 3.5816E-02, 2.8384E-01, 3.1011E-01, 1.7700E-01, 1.4072E-01, 3.2284E-01, 3.4833E-01, 3.9248E-01, 1.4752E-01, 1.4257E-01, 1.2714E-01, 2.9213E-01, 1.5903E-02, 2.6769E-01, 2.2244E-01, 1.7048E-01, 7.3779E-02, 1.4299E-01, 1.3511E-01, 1.9798E-01, 2.4881E-01, 1.8880E-01, 2.7683E-01, 3.0868E-02, 7.3096E-02, 1.5909E-01, 5.7136E-02, 1.3794E-01, 2.3363E-01, 1.8337E-01, 2.7765E-01, 2.4695E-01, 9.5113E-02, 2.3715E-01, 1.8544E-01, 6.5136E-02, 2.9001E-01, 2.4034E-01, 1.1134E-01, 1.6352E-01, 3.0383E-01, 1.4973E-01, 1.3017E-01, 2.3048E-01, 2.4553E-03, 1.0816E-02, 1.9607E-01, 2.6608E-01, 1.8866E-02, 1.0566E-01, 3.6865E-02, 1.9655E-01, 3.0155E-01, 2.5076E-01, 2.4636E-01, 7.0278E-02, 7.3813E-02, 7.7325E-02, </v>
       </c>
       <c r="D96" s="3" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>φA = (3.4178E-01, 3.5354E-01, 1.5070E-02, 3.6187E-02, 8.4673E-02, 2.6101E-01, 1.3273E-03, 2.4233E-01, 2.2604E-03, 2.8370E-01, 2.7968E-01, 2.8076E-01, 1.1677E-01, 1.3423E-01, 3.0813E-01, 7.9109E-02, 1.5524E-01, 3.2092E-01, 3.2128E-01, 1.1266E-01, 3.0366E-01, 2.1941E-01, 2.8624E-01, 1.3311E-01, 3.1960E-01, 2.3393E-01, 2.2634E-01, 2.6544E-01, 1.6089E-01, 3.1086E-01, 3.6546E-01, 2.0252E-01, 1.6723E-01, 1.9960E-01, 5.1930E-02, 1.8251E-01, 3.1560E-01, 3.0524E-01, 1.6277E-01, 1.1337E-01, 5.8233E-02, 3.1650E-01, 3.1147E-01, 4.5915E-02, 2.2788E-01, 1.8035E-01, 1.0039E-01, 2.9050E-01, 2.1635E-02, 3.8976E-02, 8.3765E-02, 2.3907E-01, 2.9136E-01, 1.3499E-01, 2.5636E-01, 2.7246E-02, 3.3663E-01, 3.0752E-01, 1.1925E-01, 1.0162E-01, 2.0809E-01, 2.3837E-01, 3.4944E-01, 3.2673E-01, 2.4781E-01, 2.4030E-02, 3.4025E-01, 2.6128E-02, 2.4247E-01, 2.5953E-01, 3.8761E-01, 7.5865E-02, 1.2074E-01, 1.8078E-01, 9.2581E-02, 1.2830E-01, 1.5491E-01, 2.3428E-02, 7.2761E-02, 1.8788E-03, 1.6092E-02)</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>φA = (3.4306E-01, 1.5567E-01, 1.8186E-01, 2.6198E-01, 2.4681E-01, 2.0392E-01, 2.4283E-01, 2.8934E-01, 2.3416E-01, 2.6075E-01, 2.7570E-01, 2.1686E-01, 1.6996E-01, 1.4802E-01, 7.2378E-02, 3.6442E-02, 3.2623E-01, 8.3854E-02, 2.8295E-01, 1.9467E-01, 1.3548E-02, 4.5575E-02, 3.6363E-02, 3.5816E-02, 2.8384E-01, 3.1011E-01, 1.7700E-01, 1.4072E-01, 3.2284E-01, 3.4833E-01, 3.9248E-01, 1.4752E-01, 1.4257E-01, 1.2714E-01, 2.9213E-01, 1.5903E-02, 2.6769E-01, 2.2244E-01, 1.7048E-01, 7.3779E-02, 1.4299E-01, 1.3511E-01, 1.9798E-01, 2.4881E-01, 1.8880E-01, 2.7683E-01, 3.0868E-02, 7.3096E-02, 1.5909E-01, 5.7136E-02, 1.3794E-01, 2.3363E-01, 1.8337E-01, 2.7765E-01, 2.4695E-01, 9.5113E-02, 2.3715E-01, 1.8544E-01, 6.5136E-02, 2.9001E-01, 2.4034E-01, 1.1134E-01, 1.6352E-01, 3.0383E-01, 1.4973E-01, 1.3017E-01, 2.3048E-01, 2.4553E-03, 1.0816E-02, 1.9607E-01, 2.6608E-01, 1.8866E-02, 1.0566E-01, 3.6865E-02, 1.9655E-01, 3.0155E-01, 2.5076E-01, 2.4636E-01, 7.0278E-02, 7.3813E-02, 7.7325E-02)</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.2">
@@ -10676,7 +10895,7 @@
         <v>#N/A</v>
       </c>
       <c r="D97" s="3" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -10689,7 +10908,7 @@
         <v>#N/A</v>
       </c>
       <c r="D98" s="3" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -10702,7 +10921,7 @@
         <v>#N/A</v>
       </c>
       <c r="D99" s="3" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -10715,7 +10934,7 @@
         <v>#N/A</v>
       </c>
       <c r="D100" s="3" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -10728,7 +10947,7 @@
         <v>#N/A</v>
       </c>
       <c r="D101" s="3" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -10741,7 +10960,7 @@
         <v>#N/A</v>
       </c>
       <c r="D102" s="3" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -10754,7 +10973,7 @@
         <v>#N/A</v>
       </c>
       <c r="D103" s="3" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -10767,7 +10986,7 @@
         <v>#N/A</v>
       </c>
       <c r="D104" s="3" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -10780,7 +10999,7 @@
         <v>#N/A</v>
       </c>
       <c r="D105" s="3" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -10793,7 +11012,7 @@
         <v>#N/A</v>
       </c>
       <c r="D106" s="3" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -10806,7 +11025,7 @@
         <v>#N/A</v>
       </c>
       <c r="D107" s="3" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -10819,7 +11038,7 @@
         <v>#N/A</v>
       </c>
       <c r="D108" s="3" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -10832,7 +11051,7 @@
         <v>#N/A</v>
       </c>
       <c r="D109" s="3" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -10845,7 +11064,2750 @@
         <v>#N/A</v>
       </c>
       <c r="D110" s="3" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86:D92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="19">
+        <v>83</v>
+      </c>
+      <c r="C3" s="20">
+        <v>8.9374990038821305E-3</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G3" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>20.75</v>
+      </c>
+      <c r="H3" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>8.9374990038821305E-3</v>
+      </c>
+      <c r="I3" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.1886873675163234E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="19">
+        <v>69</v>
+      </c>
+      <c r="C4" s="20">
+        <v>1.3086082226021339E-2</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G4" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>17.25</v>
+      </c>
+      <c r="H4" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.3086082226021339E-2</v>
+      </c>
+      <c r="I4" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.7404489360608382E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="19">
+        <v>59</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1.4527012035758487E-2</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G5" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>14.75</v>
+      </c>
+      <c r="H5" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.4527012035758487E-2</v>
+      </c>
+      <c r="I5" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.9320926007558789E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="19">
+        <v>33</v>
+      </c>
+      <c r="C6" s="20">
+        <v>9.0253909036616536E-3</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G6" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>8.25</v>
+      </c>
+      <c r="H6" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>9.0253909036616536E-3</v>
+      </c>
+      <c r="I6" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.200376990187E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="19">
+        <v>234</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1.3223211590784113E-2</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G7" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>58.5</v>
+      </c>
+      <c r="H7" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.3223211590784113E-2</v>
+      </c>
+      <c r="I7" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.7586871415742871E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="19">
+        <v>78</v>
+      </c>
+      <c r="C8" s="20">
+        <v>5.8218665047963516E-3</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G8" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>19.5</v>
+      </c>
+      <c r="H8" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>5.8218665047963516E-3</v>
+      </c>
+      <c r="I8" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>7.7430824513791477E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="19">
+        <v>216</v>
+      </c>
+      <c r="C9" s="20">
+        <v>6.2744907386301345E-4</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G9" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>54</v>
+      </c>
+      <c r="H9" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>6.2744907386301345E-4</v>
+      </c>
+      <c r="I9" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>8.345072682378079E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="19">
+        <v>38</v>
+      </c>
+      <c r="C10" s="20">
+        <v>1.3922429426732552E-2</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G10" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>9.5</v>
+      </c>
+      <c r="H10" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.3922429426732552E-2</v>
+      </c>
+      <c r="I10" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.8516831137554295E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="19">
+        <v>51</v>
+      </c>
+      <c r="C11" s="20">
+        <v>7.4427991095308912E-3</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G11" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>12.75</v>
+      </c>
+      <c r="H11" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>7.4427991095308912E-3</v>
+      </c>
+      <c r="I11" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>9.8989228156760867E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="19">
+        <v>170</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1.7889740022657065E-2</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G12" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>42.5</v>
+      </c>
+      <c r="H12" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.7889740022657065E-2</v>
+      </c>
+      <c r="I12" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.3793354230133897E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="19">
+        <v>27</v>
+      </c>
+      <c r="C13" s="20">
+        <v>1.4655637689664554E-2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G13" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>6.75</v>
+      </c>
+      <c r="H13" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.4655637689664554E-2</v>
+      </c>
+      <c r="I13" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.9491998127253857E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="19">
+        <v>187</v>
+      </c>
+      <c r="C14" s="20">
+        <v>2.1388912471892296E-3</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G14" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>46.75</v>
+      </c>
+      <c r="H14" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>2.1388912471892296E-3</v>
+      </c>
+      <c r="I14" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.8447253587616755E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="19">
+        <v>95</v>
+      </c>
+      <c r="C15" s="20">
+        <v>8.318363794932249E-4</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G15" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>23.75</v>
+      </c>
+      <c r="H15" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>8.318363794932249E-4</v>
+      </c>
+      <c r="I15" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.1063423847259891E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="19">
+        <v>249</v>
+      </c>
+      <c r="C16" s="20">
+        <v>2.0367489024000584E-3</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G16" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>62.25</v>
+      </c>
+      <c r="H16" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>2.0367489024000584E-3</v>
+      </c>
+      <c r="I16" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.7088760401920778E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="19">
+        <v>247</v>
+      </c>
+      <c r="C17" s="20">
+        <v>1.654238938926267E-3</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G17" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>61.75</v>
+      </c>
+      <c r="H17" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.654238938926267E-3</v>
+      </c>
+      <c r="I17" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.2001377887719354E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="19">
+        <v>139</v>
+      </c>
+      <c r="C18" s="20">
+        <v>1.6072717182446428E-3</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G18" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>34.75</v>
+      </c>
+      <c r="H18" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.6072717182446428E-3</v>
+      </c>
+      <c r="I18" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.137671385265375E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="19">
+        <v>82</v>
+      </c>
+      <c r="C19" s="20">
+        <v>1.0983459726707779E-4</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G19" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>20.5</v>
+      </c>
+      <c r="H19" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.0983459726707779E-4</v>
+      </c>
+      <c r="I19" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.4608001436521346E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="19">
+        <v>38</v>
+      </c>
+      <c r="C20" s="20">
+        <v>1.4727281981488856E-2</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G20" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>9.5</v>
+      </c>
+      <c r="H20" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.4727281981488856E-2</v>
+      </c>
+      <c r="I20" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.9587285035380177E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="19">
+        <v>237</v>
+      </c>
+      <c r="C21" s="20">
+        <v>9.1300410968648965E-3</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G21" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>59.25</v>
+      </c>
+      <c r="H21" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>9.1300410968648965E-3</v>
+      </c>
+      <c r="I21" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.2142954658830312E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="19">
+        <v>158</v>
+      </c>
+      <c r="C22" s="20">
+        <v>7.9264822562656479E-3</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G22" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>39.5</v>
+      </c>
+      <c r="H22" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>7.9264822562656479E-3</v>
+      </c>
+      <c r="I22" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.0542221400833312E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="19">
+        <v>150</v>
+      </c>
+      <c r="C23" s="20">
+        <v>1.0553353204273076E-2</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G23" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>37.5</v>
+      </c>
+      <c r="H23" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.0553353204273076E-2</v>
+      </c>
+      <c r="I23" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.4035959761683191E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="19">
+        <v>188</v>
+      </c>
+      <c r="C24" s="20">
+        <v>1.4197387323850244E-2</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E24" s="14">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G24" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>47</v>
+      </c>
+      <c r="H24" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.4197387323850244E-2</v>
+      </c>
+      <c r="I24" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.8882525140720825E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="19">
+        <v>138</v>
+      </c>
+      <c r="C25" s="20">
+        <v>6.5897389325770984E-3</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G25" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>34.5</v>
+      </c>
+      <c r="H25" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>6.5897389325770984E-3</v>
+      </c>
+      <c r="I25" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>8.7643527803275417E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="19">
+        <v>92</v>
+      </c>
+      <c r="C26" s="20">
+        <v>8.7391646798026541E-3</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E26" s="14">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G26" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>23</v>
+      </c>
+      <c r="H26" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>8.7391646798026541E-3</v>
+      </c>
+      <c r="I26" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.162308902413753E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="19">
+        <v>65</v>
+      </c>
+      <c r="C27" s="20">
+        <v>1.3570386855999858E-2</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E27" s="14">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G27" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>16.25</v>
+      </c>
+      <c r="H27" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.3570386855999858E-2</v>
+      </c>
+      <c r="I27" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.8048614518479812E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="19">
+        <v>114</v>
+      </c>
+      <c r="C28" s="20">
+        <v>1.6998554163681196E-2</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E28" s="14">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G28" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>28.5</v>
+      </c>
+      <c r="H28" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.6998554163681196E-2</v>
+      </c>
+      <c r="I28" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.2608077037695993E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="19">
+        <v>86</v>
+      </c>
+      <c r="C29" s="20">
+        <v>8.8371909947673518E-3</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E29" s="14">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G29" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>21.5</v>
+      </c>
+      <c r="H29" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>8.8371909947673518E-3</v>
+      </c>
+      <c r="I29" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.1753464023040578E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="19">
+        <v>64</v>
+      </c>
+      <c r="C30" s="20">
+        <v>2.340103280266217E-3</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G30" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>16</v>
+      </c>
+      <c r="H30" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>2.340103280266217E-3</v>
+      </c>
+      <c r="I30" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>3.1123373627540687E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="19">
+        <v>127</v>
+      </c>
+      <c r="C31" s="20">
+        <v>6.9029321814704494E-3</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E31" s="14">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G31" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>31.75</v>
+      </c>
+      <c r="H31" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>6.9029321814704494E-3</v>
+      </c>
+      <c r="I31" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>9.1808998013556981E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="19">
+        <v>36</v>
+      </c>
+      <c r="C32" s="20">
+        <v>2.0520258284588435E-3</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E32" s="14">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G32" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>9</v>
+      </c>
+      <c r="H32" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>2.0520258284588435E-3</v>
+      </c>
+      <c r="I32" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.7291943518502619E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="19">
+        <v>236</v>
+      </c>
+      <c r="C33" s="20">
+        <v>1.9371175579712015E-2</v>
+      </c>
+      <c r="D33" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E33" s="14">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G33" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>59</v>
+      </c>
+      <c r="H33" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.9371175579712015E-2</v>
+      </c>
+      <c r="I33" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.5763663521016982E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="19">
+        <v>246</v>
+      </c>
+      <c r="C34" s="20">
+        <v>3.4864124906401409E-3</v>
+      </c>
+      <c r="D34" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E34" s="14">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G34" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>61.5</v>
+      </c>
+      <c r="H34" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>3.4864124906401409E-3</v>
+      </c>
+      <c r="I34" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>4.6369286125513874E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="19">
+        <v>105</v>
+      </c>
+      <c r="C35" s="20">
+        <v>3.2566728429257808E-3</v>
+      </c>
+      <c r="D35" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E35" s="14">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G35" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>26.25</v>
+      </c>
+      <c r="H35" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>3.2566728429257808E-3</v>
+      </c>
+      <c r="I35" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>4.3313748810912883E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="19">
+        <v>79</v>
+      </c>
+      <c r="C36" s="20">
+        <v>1.4395511894604498E-2</v>
+      </c>
+      <c r="D36" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E36" s="14">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G36" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>19.75</v>
+      </c>
+      <c r="H36" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.4395511894604498E-2</v>
+      </c>
+      <c r="I36" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.9146030819823984E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="19">
+        <v>64</v>
+      </c>
+      <c r="C37" s="20">
+        <v>1.8818564236228314E-2</v>
+      </c>
+      <c r="D37" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E37" s="14">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G37" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>16</v>
+      </c>
+      <c r="H37" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.8818564236228314E-2</v>
+      </c>
+      <c r="I37" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.5028690434183661E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="19">
+        <v>85</v>
+      </c>
+      <c r="C38" s="20">
+        <v>2.537201248554115E-3</v>
+      </c>
+      <c r="D38" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E38" s="14">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G38" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>21.25</v>
+      </c>
+      <c r="H38" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>2.537201248554115E-3</v>
+      </c>
+      <c r="I38" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>3.3744776605769732E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="19">
+        <v>201</v>
+      </c>
+      <c r="C39" s="20">
+        <v>4.2191640653091046E-3</v>
+      </c>
+      <c r="D39" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E39" s="14">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G39" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>50.25</v>
+      </c>
+      <c r="H39" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>4.2191640653091046E-3</v>
+      </c>
+      <c r="I39" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>5.6114882068611094E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="19">
+        <v>59</v>
+      </c>
+      <c r="C40" s="20">
+        <v>1.7584492165131645E-2</v>
+      </c>
+      <c r="D40" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E40" s="14">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G40" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>14.75</v>
+      </c>
+      <c r="H40" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.7584492165131645E-2</v>
+      </c>
+      <c r="I40" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.338737457962509E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="19">
+        <v>55</v>
+      </c>
+      <c r="C41" s="20">
+        <v>1.0258408281783768E-2</v>
+      </c>
+      <c r="D41" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E41" s="14">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G41" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>13.75</v>
+      </c>
+      <c r="H41" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.0258408281783768E-2</v>
+      </c>
+      <c r="I41" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.3643683014772413E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="19">
+        <v>48</v>
+      </c>
+      <c r="C42" s="20">
+        <v>4.1057088191184523E-3</v>
+      </c>
+      <c r="D42" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E42" s="14">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G42" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>12</v>
+      </c>
+      <c r="H42" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>4.1057088191184523E-3</v>
+      </c>
+      <c r="I42" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>5.460592729427542E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="19">
+        <v>19</v>
+      </c>
+      <c r="C43" s="20">
+        <v>6.5670053855006044E-3</v>
+      </c>
+      <c r="D43" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E43" s="14">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G43" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>4.75</v>
+      </c>
+      <c r="H43" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>6.5670053855006044E-3</v>
+      </c>
+      <c r="I43" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>8.7341171627158039E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="19">
+        <v>103</v>
+      </c>
+      <c r="C44" s="20">
+        <v>1.8334691450503319E-2</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E44" s="14">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G44" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>25.75</v>
+      </c>
+      <c r="H44" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.8334691450503319E-2</v>
+      </c>
+      <c r="I44" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.4385139629169415E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="19">
+        <v>160</v>
+      </c>
+      <c r="C45" s="20">
+        <v>8.6711844656830774E-3</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E45" s="14">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G45" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>40</v>
+      </c>
+      <c r="H45" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>8.6711844656830774E-3</v>
+      </c>
+      <c r="I45" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.1532675339358494E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="19">
+        <v>234</v>
+      </c>
+      <c r="C46" s="20">
+        <v>1.4253538080093862E-2</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E46" s="14">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G46" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>58.5</v>
+      </c>
+      <c r="H46" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.4253538080093862E-2</v>
+      </c>
+      <c r="I46" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.8957205646524838E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="19">
+        <v>3</v>
+      </c>
+      <c r="C47" s="20">
+        <v>9.4144170959203962E-3</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E47" s="14">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G47" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>0.75</v>
+      </c>
+      <c r="H47" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>9.4144170959203962E-3</v>
+      </c>
+      <c r="I47" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.2521174737574128E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="19">
+        <v>249</v>
+      </c>
+      <c r="C48" s="20">
+        <v>1.8705422338865598E-2</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E48" s="14">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G48" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>62.25</v>
+      </c>
+      <c r="H48" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.8705422338865598E-2</v>
+      </c>
+      <c r="I48" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.4878211710691246E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="19">
+        <v>197</v>
+      </c>
+      <c r="C49" s="20">
+        <v>3.6738434067964754E-3</v>
+      </c>
+      <c r="D49" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E49" s="14">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G49" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>49.25</v>
+      </c>
+      <c r="H49" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>3.6738434067964754E-3</v>
+      </c>
+      <c r="I49" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>4.886211731039313E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="19">
+        <v>107</v>
+      </c>
+      <c r="C50" s="20">
+        <v>1.0837565941339113E-2</v>
+      </c>
+      <c r="D50" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E50" s="14">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G50" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>26.75</v>
+      </c>
+      <c r="H50" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.0837565941339113E-2</v>
+      </c>
+      <c r="I50" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.4413962701981021E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="19">
+        <v>131</v>
+      </c>
+      <c r="C51" s="20">
+        <v>1.2990161276342617E-2</v>
+      </c>
+      <c r="D51" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E51" s="14">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G51" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>32.75</v>
+      </c>
+      <c r="H51" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.2990161276342617E-2</v>
+      </c>
+      <c r="I51" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.727691449753568E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="19">
+        <v>31</v>
+      </c>
+      <c r="C52" s="20">
+        <v>1.1351400339224271E-2</v>
+      </c>
+      <c r="D52" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E52" s="14">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G52" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>7.75</v>
+      </c>
+      <c r="H52" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.1351400339224271E-2</v>
+      </c>
+      <c r="I52" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.5097362451168281E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="19">
+        <v>212</v>
+      </c>
+      <c r="C53" s="20">
+        <v>9.6199623352634794E-3</v>
+      </c>
+      <c r="D53" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E53" s="14">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G53" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>53</v>
+      </c>
+      <c r="H53" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>9.6199623352634794E-3</v>
+      </c>
+      <c r="I53" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.2794549905900428E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="19">
+        <v>140</v>
+      </c>
+      <c r="C54" s="20">
+        <v>1.449125742004166E-2</v>
+      </c>
+      <c r="D54" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E54" s="14">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G54" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>35</v>
+      </c>
+      <c r="H54" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.449125742004166E-2</v>
+      </c>
+      <c r="I54" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.9273372368655409E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="19">
+        <v>187</v>
+      </c>
+      <c r="C55" s="20">
+        <v>1.290847182599828E-3</v>
+      </c>
+      <c r="D55" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E55" s="14">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G55" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>46.75</v>
+      </c>
+      <c r="H55" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.290847182599828E-3</v>
+      </c>
+      <c r="I55" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.7168267528577712E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="19">
+        <v>88</v>
+      </c>
+      <c r="C56" s="20">
+        <v>1.6436240584756571E-2</v>
+      </c>
+      <c r="D56" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E56" s="14">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G56" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>22</v>
+      </c>
+      <c r="H56" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.6436240584756571E-2</v>
+      </c>
+      <c r="I56" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.1860199977726241E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="19">
+        <v>120</v>
+      </c>
+      <c r="C57" s="20">
+        <v>8.1131102953691421E-3</v>
+      </c>
+      <c r="D57" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E57" s="14">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G57" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>30</v>
+      </c>
+      <c r="H57" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>8.1131102953691421E-3</v>
+      </c>
+      <c r="I57" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.079043669284096E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="19">
+        <v>218</v>
+      </c>
+      <c r="C58" s="20">
+        <v>1.3586548659546321E-2</v>
+      </c>
+      <c r="D58" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E58" s="14">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G58" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>54.5</v>
+      </c>
+      <c r="H58" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.3586548659546321E-2</v>
+      </c>
+      <c r="I58" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.8070109717196609E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="19">
+        <v>157</v>
+      </c>
+      <c r="C59" s="20">
+        <v>1.9557430772298365E-2</v>
+      </c>
+      <c r="D59" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E59" s="14">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G59" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>39.25</v>
+      </c>
+      <c r="H59" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.9557430772298365E-2</v>
+      </c>
+      <c r="I59" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.6011382927156827E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="19">
+        <v>48</v>
+      </c>
+      <c r="C60" s="20">
+        <v>6.2602446004445264E-3</v>
+      </c>
+      <c r="D60" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E60" s="14">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G60" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>12</v>
+      </c>
+      <c r="H60" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>6.2602446004445264E-3</v>
+      </c>
+      <c r="I60" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>8.3261253185912213E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="19">
+        <v>204</v>
+      </c>
+      <c r="C61" s="20">
+        <v>3.1353956663919512E-3</v>
+      </c>
+      <c r="D61" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E61" s="14">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G61" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>51</v>
+      </c>
+      <c r="H61" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>3.1353956663919512E-3</v>
+      </c>
+      <c r="I61" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>4.1700762363012954E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="19">
+        <v>224</v>
+      </c>
+      <c r="C62" s="20">
+        <v>9.6718306492034952E-4</v>
+      </c>
+      <c r="D62" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E62" s="14">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G62" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>56</v>
+      </c>
+      <c r="H62" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>9.6718306492034952E-4</v>
+      </c>
+      <c r="I62" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.2863534763440649E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B63" s="19">
+        <v>211</v>
+      </c>
+      <c r="C63" s="20">
+        <v>1.7214790937827164E-2</v>
+      </c>
+      <c r="D63" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E63" s="14">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G63" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>52.75</v>
+      </c>
+      <c r="H63" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.7214790937827164E-2</v>
+      </c>
+      <c r="I63" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.2895671947310129E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="19">
+        <v>92</v>
+      </c>
+      <c r="C64" s="20">
+        <v>9.3494515531969749E-4</v>
+      </c>
+      <c r="D64" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E64" s="14">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G64" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>23</v>
+      </c>
+      <c r="H64" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>9.3494515531969749E-4</v>
+      </c>
+      <c r="I64" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.2434770565751976E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" s="19">
+        <v>49</v>
+      </c>
+      <c r="C65" s="20">
+        <v>1.234405203291279E-2</v>
+      </c>
+      <c r="D65" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E65" s="14">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G65" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>12.25</v>
+      </c>
+      <c r="H65" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.234405203291279E-2</v>
+      </c>
+      <c r="I65" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.6417589203774011E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66" s="19">
+        <v>166</v>
+      </c>
+      <c r="C66" s="20">
+        <v>1.690934820080036E-2</v>
+      </c>
+      <c r="D66" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E66" s="14">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G66" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>41.5</v>
+      </c>
+      <c r="H66" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.690934820080036E-2</v>
+      </c>
+      <c r="I66" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.2489433107064478E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="19">
+        <v>70</v>
+      </c>
+      <c r="C67" s="20">
+        <v>1.6179880847130252E-2</v>
+      </c>
+      <c r="D67" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E67" s="14">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G67" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>17.5</v>
+      </c>
+      <c r="H67" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.6179880847130252E-2</v>
+      </c>
+      <c r="I67" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.1519241526683237E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="19">
+        <v>202</v>
+      </c>
+      <c r="C68" s="20">
+        <v>3.0516101542910003E-3</v>
+      </c>
+      <c r="D68" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E68" s="14">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G68" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>50.5</v>
+      </c>
+      <c r="H68" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>3.0516101542910003E-3</v>
+      </c>
+      <c r="I68" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>4.0586415052070307E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="19">
+        <v>5</v>
+      </c>
+      <c r="C69" s="20">
+        <v>1.9420645593052607E-2</v>
+      </c>
+      <c r="D69" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E69" s="14">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G69" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>1.25</v>
+      </c>
+      <c r="H69" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.9420645593052607E-2</v>
+      </c>
+      <c r="I69" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.5829458638759968E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="19">
+        <v>53</v>
+      </c>
+      <c r="C70" s="20">
+        <v>1.4104184342882121E-2</v>
+      </c>
+      <c r="D70" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E70" s="14">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G70" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>13.25</v>
+      </c>
+      <c r="H70" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.4104184342882121E-2</v>
+      </c>
+      <c r="I70" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.8758565176033221E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="19">
+        <v>210</v>
+      </c>
+      <c r="C71" s="20">
+        <v>1.2065358591759346E-2</v>
+      </c>
+      <c r="D71" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E71" s="14">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G71" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>52.5</v>
+      </c>
+      <c r="H71" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.2065358591759346E-2</v>
+      </c>
+      <c r="I71" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.604692692703993E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="19">
+        <v>166</v>
+      </c>
+      <c r="C72" s="20">
+        <v>5.4680114234788961E-3</v>
+      </c>
+      <c r="D72" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E72" s="14">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G72" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>41.5</v>
+      </c>
+      <c r="H72" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>5.4680114234788961E-3</v>
+      </c>
+      <c r="I72" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>7.2724551932269324E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="19">
+        <v>79</v>
+      </c>
+      <c r="C73" s="20">
+        <v>1.9972894333521771E-2</v>
+      </c>
+      <c r="D73" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E73" s="14">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G73" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>19.75</v>
+      </c>
+      <c r="H73" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.9972894333521771E-2</v>
+      </c>
+      <c r="I73" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.6563949463583956E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="19">
+        <v>143</v>
+      </c>
+      <c r="C74" s="20">
+        <v>1.3256559624950219E-2</v>
+      </c>
+      <c r="D74" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E74" s="14">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G74" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>35.75</v>
+      </c>
+      <c r="H74" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.3256559624950219E-2</v>
+      </c>
+      <c r="I74" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.7631224301183794E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="19">
+        <v>60</v>
+      </c>
+      <c r="C75" s="20">
+        <v>1.7405210969057918E-2</v>
+      </c>
+      <c r="D75" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E75" s="14">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G75" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>15</v>
+      </c>
+      <c r="H75" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.7405210969057918E-2</v>
+      </c>
+      <c r="I75" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.3148930588847032E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="19">
+        <v>115</v>
+      </c>
+      <c r="C76" s="20">
+        <v>1.321631980998917E-2</v>
+      </c>
+      <c r="D76" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E76" s="14">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G76" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>28.75</v>
+      </c>
+      <c r="H76" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.321631980998917E-2</v>
+      </c>
+      <c r="I76" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.7577705347285599E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="19">
+        <v>143</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.22752848493397E-2</v>
+      </c>
+      <c r="D77" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E77" s="14">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G77" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>35.75</v>
+      </c>
+      <c r="H77" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.22752848493397E-2</v>
+      </c>
+      <c r="I77" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.6326128849621802E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="19">
+        <v>129</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.8487424577919492E-2</v>
+      </c>
+      <c r="D78" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E78" s="14">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G78" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>32.25</v>
+      </c>
+      <c r="H78" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.8487424577919492E-2</v>
+      </c>
+      <c r="I78" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.4588274688632925E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="19">
+        <v>64</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.8379117018853822E-2</v>
+      </c>
+      <c r="D79" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E79" s="14">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G79" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>16</v>
+      </c>
+      <c r="H79" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.8379117018853822E-2</v>
+      </c>
+      <c r="I79" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.4444225635075582E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="19">
+        <v>224</v>
+      </c>
+      <c r="C80" s="20">
+        <v>4.742025742592593E-4</v>
+      </c>
+      <c r="D80" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E80" s="14">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G80" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>56</v>
+      </c>
+      <c r="H80" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>4.742025742592593E-4</v>
+      </c>
+      <c r="I80" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>6.3068942376481494E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" s="19">
+        <v>144</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.3361666558285905E-2</v>
+      </c>
+      <c r="D81" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E81" s="14">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G81" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>36</v>
+      </c>
+      <c r="H81" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.3361666558285905E-2</v>
+      </c>
+      <c r="I81" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>1.7771016522520253E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" s="19">
+        <v>7</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.6817765197409075E-4</v>
+      </c>
+      <c r="D82" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E82" s="14">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G82" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>1.75</v>
+      </c>
+      <c r="H82" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.6817765197409075E-4</v>
+      </c>
+      <c r="I82" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.2367627712554071E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B83" s="19">
+        <v>192</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.6758528505758971E-2</v>
+      </c>
+      <c r="D83" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E83" s="14">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G83" s="16">
+        <f>tbl7_5[[#This Row],[a_e_perp]]*tbl7_5[[#This Row],[safety_factor_thickness]]</f>
+        <v>48</v>
+      </c>
+      <c r="H83" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_beyond]]</f>
+        <v>1.6758528505758971E-2</v>
+      </c>
+      <c r="I83" s="16">
+        <f>tbl7_5[[#This Row],[Area_Reqd]]*tbl7_5[[#This Row],[safety_factor_perpendicular]]</f>
+        <v>2.2288842912659434E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="str">
+        <f t="array" ref="B85:B110">TRANSPOSE(tbl7_5[#Headers])</f>
+        <v>a_e_perp</v>
+      </c>
+      <c r="C85" s="6" t="str">
+        <f t="array" aca="1" ref="C85" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B85&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B85&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v xml:space="preserve">8.3000E+01, 6.9000E+01, 5.9000E+01, 3.3000E+01, 2.3400E+02, 7.8000E+01, 2.1600E+02, 3.8000E+01, 5.1000E+01, 1.7000E+02, 2.7000E+01, 1.8700E+02, 9.5000E+01, 2.4900E+02, 2.4700E+02, 1.3900E+02, 8.2000E+01, 3.8000E+01, 2.3700E+02, 1.5800E+02, 1.5000E+02, 1.8800E+02, 1.3800E+02, 9.2000E+01, 6.5000E+01, 1.1400E+02, 8.6000E+01, 6.4000E+01, 1.2700E+02, 3.6000E+01, 2.3600E+02, 2.4600E+02, 1.0500E+02, 7.9000E+01, 6.4000E+01, 8.5000E+01, 2.0100E+02, 5.9000E+01, 5.5000E+01, 4.8000E+01, 1.9000E+01, 1.0300E+02, 1.6000E+02, 2.3400E+02, 3.0000E+00, 2.4900E+02, 1.9700E+02, 1.0700E+02, 1.3100E+02, 3.1000E+01, 2.1200E+02, 1.4000E+02, 1.8700E+02, 8.8000E+01, 1.2000E+02, 2.1800E+02, 1.5700E+02, 4.8000E+01, 2.0400E+02, 2.2400E+02, 2.1100E+02, 9.2000E+01, 4.9000E+01, 1.6600E+02, 7.0000E+01, 2.0200E+02, 5.0000E+00, 5.3000E+01, 2.1000E+02, 1.6600E+02, 7.9000E+01, 1.4300E+02, 6.0000E+01, 1.1500E+02, 1.4300E+02, 1.2900E+02, 6.4000E+01, 2.2400E+02, 1.4400E+02, 7.0000E+00, 1.9200E+02, </v>
+      </c>
+      <c r="D85" s="3" t="str">
+        <f ca="1">B85&amp;" = ("&amp;LEFT(C85,LEN(C85)-2)&amp;")"</f>
+        <v>a_e_perp = (8.3000E+01, 6.9000E+01, 5.9000E+01, 3.3000E+01, 2.3400E+02, 7.8000E+01, 2.1600E+02, 3.8000E+01, 5.1000E+01, 1.7000E+02, 2.7000E+01, 1.8700E+02, 9.5000E+01, 2.4900E+02, 2.4700E+02, 1.3900E+02, 8.2000E+01, 3.8000E+01, 2.3700E+02, 1.5800E+02, 1.5000E+02, 1.8800E+02, 1.3800E+02, 9.2000E+01, 6.5000E+01, 1.1400E+02, 8.6000E+01, 6.4000E+01, 1.2700E+02, 3.6000E+01, 2.3600E+02, 2.4600E+02, 1.0500E+02, 7.9000E+01, 6.4000E+01, 8.5000E+01, 2.0100E+02, 5.9000E+01, 5.5000E+01, 4.8000E+01, 1.9000E+01, 1.0300E+02, 1.6000E+02, 2.3400E+02, 3.0000E+00, 2.4900E+02, 1.9700E+02, 1.0700E+02, 1.3100E+02, 3.1000E+01, 2.1200E+02, 1.4000E+02, 1.8700E+02, 8.8000E+01, 1.2000E+02, 2.1800E+02, 1.5700E+02, 4.8000E+01, 2.0400E+02, 2.2400E+02, 2.1100E+02, 9.2000E+01, 4.9000E+01, 1.6600E+02, 7.0000E+01, 2.0200E+02, 5.0000E+00, 5.3000E+01, 2.1000E+02, 1.6600E+02, 7.9000E+01, 1.4300E+02, 6.0000E+01, 1.1500E+02, 1.4300E+02, 1.2900E+02, 6.4000E+01, 2.2400E+02, 1.4400E+02, 7.0000E+00, 1.9200E+02)</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="str">
+        <v>Area_Reqd</v>
+      </c>
+      <c r="C86" s="6" t="str">
+        <f t="array" aca="1" ref="C86" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B86&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B86&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v xml:space="preserve">8.9375E-03, 1.3086E-02, 1.4527E-02, 9.0254E-03, 1.3223E-02, 5.8219E-03, 6.2745E-04, 1.3922E-02, 7.4428E-03, 1.7890E-02, 1.4656E-02, 2.1389E-03, 8.3184E-04, 2.0367E-03, 1.6542E-03, 1.6073E-03, 1.0983E-04, 1.4727E-02, 9.1300E-03, 7.9265E-03, 1.0553E-02, 1.4197E-02, 6.5897E-03, 8.7392E-03, 1.3570E-02, 1.6999E-02, 8.8372E-03, 2.3401E-03, 6.9029E-03, 2.0520E-03, 1.9371E-02, 3.4864E-03, 3.2567E-03, 1.4396E-02, 1.8819E-02, 2.5372E-03, 4.2192E-03, 1.7584E-02, 1.0258E-02, 4.1057E-03, 6.5670E-03, 1.8335E-02, 8.6712E-03, 1.4254E-02, 9.4144E-03, 1.8705E-02, 3.6738E-03, 1.0838E-02, 1.2990E-02, 1.1351E-02, 9.6200E-03, 1.4491E-02, 1.2908E-03, 1.6436E-02, 8.1131E-03, 1.3587E-02, 1.9557E-02, 6.2602E-03, 3.1354E-03, 9.6718E-04, 1.7215E-02, 9.3495E-04, 1.2344E-02, 1.6909E-02, 1.6180E-02, 3.0516E-03, 1.9421E-02, 1.4104E-02, 1.2065E-02, 5.4680E-03, 1.9973E-02, 1.3257E-02, 1.7405E-02, 1.3216E-02, 1.2275E-02, 1.8487E-02, 1.8379E-02, 4.7420E-04, 1.3362E-02, 1.6818E-04, 1.6759E-02, </v>
+      </c>
+      <c r="D86" s="3" t="str">
+        <f t="shared" ref="D86:D110" ca="1" si="0">B86&amp;" = ("&amp;LEFT(C86,LEN(C86)-2)&amp;")"</f>
+        <v>Area_Reqd = (8.9375E-03, 1.3086E-02, 1.4527E-02, 9.0254E-03, 1.3223E-02, 5.8219E-03, 6.2745E-04, 1.3922E-02, 7.4428E-03, 1.7890E-02, 1.4656E-02, 2.1389E-03, 8.3184E-04, 2.0367E-03, 1.6542E-03, 1.6073E-03, 1.0983E-04, 1.4727E-02, 9.1300E-03, 7.9265E-03, 1.0553E-02, 1.4197E-02, 6.5897E-03, 8.7392E-03, 1.3570E-02, 1.6999E-02, 8.8372E-03, 2.3401E-03, 6.9029E-03, 2.0520E-03, 1.9371E-02, 3.4864E-03, 3.2567E-03, 1.4396E-02, 1.8819E-02, 2.5372E-03, 4.2192E-03, 1.7584E-02, 1.0258E-02, 4.1057E-03, 6.5670E-03, 1.8335E-02, 8.6712E-03, 1.4254E-02, 9.4144E-03, 1.8705E-02, 3.6738E-03, 1.0838E-02, 1.2990E-02, 1.1351E-02, 9.6200E-03, 1.4491E-02, 1.2908E-03, 1.6436E-02, 8.1131E-03, 1.3587E-02, 1.9557E-02, 6.2602E-03, 3.1354E-03, 9.6718E-04, 1.7215E-02, 9.3495E-04, 1.2344E-02, 1.6909E-02, 1.6180E-02, 3.0516E-03, 1.9421E-02, 1.4104E-02, 1.2065E-02, 5.4680E-03, 1.9973E-02, 1.3257E-02, 1.7405E-02, 1.3216E-02, 1.2275E-02, 1.8487E-02, 1.8379E-02, 4.7420E-04, 1.3362E-02, 1.6818E-04, 1.6759E-02)</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B87" s="3" t="str">
+        <v>safety_factor_thickness</v>
+      </c>
+      <c r="C87" s="6" t="str">
+        <f t="array" aca="1" ref="C87" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B87&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B87&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v xml:space="preserve">2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, </v>
+      </c>
+      <c r="D87" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>safety_factor_thickness = (2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01, 2.5000E-01)</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="str">
+        <v>safety_factor_beyond</v>
+      </c>
+      <c r="C88" s="6" t="str">
+        <f t="array" aca="1" ref="C88" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B88&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B88&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v xml:space="preserve">1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, </v>
+      </c>
+      <c r="D88" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>safety_factor_beyond = (1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00, 1.0000E+00)</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="str">
+        <v>safety_factor_perpendicular</v>
+      </c>
+      <c r="C89" s="6" t="str">
+        <f t="array" aca="1" ref="C89" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B89&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B89&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v xml:space="preserve">1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, </v>
+      </c>
+      <c r="D89" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>safety_factor_perpendicular = (1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00, 1.3300E+00)</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B90" s="3" t="str">
+        <v>t_min</v>
+      </c>
+      <c r="C90" s="6" t="str">
+        <f t="array" aca="1" ref="C90" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B90&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B90&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v xml:space="preserve">2.0750E+01, 1.7250E+01, 1.4750E+01, 8.2500E+00, 5.8500E+01, 1.9500E+01, 5.4000E+01, 9.5000E+00, 1.2750E+01, 4.2500E+01, 6.7500E+00, 4.6750E+01, 2.3750E+01, 6.2250E+01, 6.1750E+01, 3.4750E+01, 2.0500E+01, 9.5000E+00, 5.9250E+01, 3.9500E+01, 3.7500E+01, 4.7000E+01, 3.4500E+01, 2.3000E+01, 1.6250E+01, 2.8500E+01, 2.1500E+01, 1.6000E+01, 3.1750E+01, 9.0000E+00, 5.9000E+01, 6.1500E+01, 2.6250E+01, 1.9750E+01, 1.6000E+01, 2.1250E+01, 5.0250E+01, 1.4750E+01, 1.3750E+01, 1.2000E+01, 4.7500E+00, 2.5750E+01, 4.0000E+01, 5.8500E+01, 7.5000E-01, 6.2250E+01, 4.9250E+01, 2.6750E+01, 3.2750E+01, 7.7500E+00, 5.3000E+01, 3.5000E+01, 4.6750E+01, 2.2000E+01, 3.0000E+01, 5.4500E+01, 3.9250E+01, 1.2000E+01, 5.1000E+01, 5.6000E+01, 5.2750E+01, 2.3000E+01, 1.2250E+01, 4.1500E+01, 1.7500E+01, 5.0500E+01, 1.2500E+00, 1.3250E+01, 5.2500E+01, 4.1500E+01, 1.9750E+01, 3.5750E+01, 1.5000E+01, 2.8750E+01, 3.5750E+01, 3.2250E+01, 1.6000E+01, 5.6000E+01, 3.6000E+01, 1.7500E+00, 4.8000E+01, </v>
+      </c>
+      <c r="D90" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>t_min = (2.0750E+01, 1.7250E+01, 1.4750E+01, 8.2500E+00, 5.8500E+01, 1.9500E+01, 5.4000E+01, 9.5000E+00, 1.2750E+01, 4.2500E+01, 6.7500E+00, 4.6750E+01, 2.3750E+01, 6.2250E+01, 6.1750E+01, 3.4750E+01, 2.0500E+01, 9.5000E+00, 5.9250E+01, 3.9500E+01, 3.7500E+01, 4.7000E+01, 3.4500E+01, 2.3000E+01, 1.6250E+01, 2.8500E+01, 2.1500E+01, 1.6000E+01, 3.1750E+01, 9.0000E+00, 5.9000E+01, 6.1500E+01, 2.6250E+01, 1.9750E+01, 1.6000E+01, 2.1250E+01, 5.0250E+01, 1.4750E+01, 1.3750E+01, 1.2000E+01, 4.7500E+00, 2.5750E+01, 4.0000E+01, 5.8500E+01, 7.5000E-01, 6.2250E+01, 4.9250E+01, 2.6750E+01, 3.2750E+01, 7.7500E+00, 5.3000E+01, 3.5000E+01, 4.6750E+01, 2.2000E+01, 3.0000E+01, 5.4500E+01, 3.9250E+01, 1.2000E+01, 5.1000E+01, 5.6000E+01, 5.2750E+01, 2.3000E+01, 1.2250E+01, 4.1500E+01, 1.7500E+01, 5.0500E+01, 1.2500E+00, 1.3250E+01, 5.2500E+01, 4.1500E+01, 1.9750E+01, 3.5750E+01, 1.5000E+01, 2.8750E+01, 3.5750E+01, 3.2250E+01, 1.6000E+01, 5.6000E+01, 3.6000E+01, 1.7500E+00, 4.8000E+01)</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="str">
+        <v>Abeyond</v>
+      </c>
+      <c r="C91" s="6" t="str">
+        <f t="array" aca="1" ref="C91" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B91&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B91&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v xml:space="preserve">8.9375E-03, 1.3086E-02, 1.4527E-02, 9.0254E-03, 1.3223E-02, 5.8219E-03, 6.2745E-04, 1.3922E-02, 7.4428E-03, 1.7890E-02, 1.4656E-02, 2.1389E-03, 8.3184E-04, 2.0367E-03, 1.6542E-03, 1.6073E-03, 1.0983E-04, 1.4727E-02, 9.1300E-03, 7.9265E-03, 1.0553E-02, 1.4197E-02, 6.5897E-03, 8.7392E-03, 1.3570E-02, 1.6999E-02, 8.8372E-03, 2.3401E-03, 6.9029E-03, 2.0520E-03, 1.9371E-02, 3.4864E-03, 3.2567E-03, 1.4396E-02, 1.8819E-02, 2.5372E-03, 4.2192E-03, 1.7584E-02, 1.0258E-02, 4.1057E-03, 6.5670E-03, 1.8335E-02, 8.6712E-03, 1.4254E-02, 9.4144E-03, 1.8705E-02, 3.6738E-03, 1.0838E-02, 1.2990E-02, 1.1351E-02, 9.6200E-03, 1.4491E-02, 1.2908E-03, 1.6436E-02, 8.1131E-03, 1.3587E-02, 1.9557E-02, 6.2602E-03, 3.1354E-03, 9.6718E-04, 1.7215E-02, 9.3495E-04, 1.2344E-02, 1.6909E-02, 1.6180E-02, 3.0516E-03, 1.9421E-02, 1.4104E-02, 1.2065E-02, 5.4680E-03, 1.9973E-02, 1.3257E-02, 1.7405E-02, 1.3216E-02, 1.2275E-02, 1.8487E-02, 1.8379E-02, 4.7420E-04, 1.3362E-02, 1.6818E-04, 1.6759E-02, </v>
+      </c>
+      <c r="D91" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Abeyond = (8.9375E-03, 1.3086E-02, 1.4527E-02, 9.0254E-03, 1.3223E-02, 5.8219E-03, 6.2745E-04, 1.3922E-02, 7.4428E-03, 1.7890E-02, 1.4656E-02, 2.1389E-03, 8.3184E-04, 2.0367E-03, 1.6542E-03, 1.6073E-03, 1.0983E-04, 1.4727E-02, 9.1300E-03, 7.9265E-03, 1.0553E-02, 1.4197E-02, 6.5897E-03, 8.7392E-03, 1.3570E-02, 1.6999E-02, 8.8372E-03, 2.3401E-03, 6.9029E-03, 2.0520E-03, 1.9371E-02, 3.4864E-03, 3.2567E-03, 1.4396E-02, 1.8819E-02, 2.5372E-03, 4.2192E-03, 1.7584E-02, 1.0258E-02, 4.1057E-03, 6.5670E-03, 1.8335E-02, 8.6712E-03, 1.4254E-02, 9.4144E-03, 1.8705E-02, 3.6738E-03, 1.0838E-02, 1.2990E-02, 1.1351E-02, 9.6200E-03, 1.4491E-02, 1.2908E-03, 1.6436E-02, 8.1131E-03, 1.3587E-02, 1.9557E-02, 6.2602E-03, 3.1354E-03, 9.6718E-04, 1.7215E-02, 9.3495E-04, 1.2344E-02, 1.6909E-02, 1.6180E-02, 3.0516E-03, 1.9421E-02, 1.4104E-02, 1.2065E-02, 5.4680E-03, 1.9973E-02, 1.3257E-02, 1.7405E-02, 1.3216E-02, 1.2275E-02, 1.8487E-02, 1.8379E-02, 4.7420E-04, 1.3362E-02, 1.6818E-04, 1.6759E-02)</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="str">
+        <v>Aperp</v>
+      </c>
+      <c r="C92" s="6" t="str">
+        <f t="array" aca="1" ref="C92" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B92&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B92&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v xml:space="preserve">1.1887E-02, 1.7404E-02, 1.9321E-02, 1.2004E-02, 1.7587E-02, 7.7431E-03, 8.3451E-04, 1.8517E-02, 9.8989E-03, 2.3793E-02, 1.9492E-02, 2.8447E-03, 1.1063E-03, 2.7089E-03, 2.2001E-03, 2.1377E-03, 1.4608E-04, 1.9587E-02, 1.2143E-02, 1.0542E-02, 1.4036E-02, 1.8883E-02, 8.7644E-03, 1.1623E-02, 1.8049E-02, 2.2608E-02, 1.1753E-02, 3.1123E-03, 9.1809E-03, 2.7292E-03, 2.5764E-02, 4.6369E-03, 4.3314E-03, 1.9146E-02, 2.5029E-02, 3.3745E-03, 5.6115E-03, 2.3387E-02, 1.3644E-02, 5.4606E-03, 8.7341E-03, 2.4385E-02, 1.1533E-02, 1.8957E-02, 1.2521E-02, 2.4878E-02, 4.8862E-03, 1.4414E-02, 1.7277E-02, 1.5097E-02, 1.2795E-02, 1.9273E-02, 1.7168E-03, 2.1860E-02, 1.0790E-02, 1.8070E-02, 2.6011E-02, 8.3261E-03, 4.1701E-03, 1.2864E-03, 2.2896E-02, 1.2435E-03, 1.6418E-02, 2.2489E-02, 2.1519E-02, 4.0586E-03, 2.5829E-02, 1.8759E-02, 1.6047E-02, 7.2725E-03, 2.6564E-02, 1.7631E-02, 2.3149E-02, 1.7578E-02, 1.6326E-02, 2.4588E-02, 2.4444E-02, 6.3069E-04, 1.7771E-02, 2.2368E-04, 2.2289E-02, </v>
+      </c>
+      <c r="D92" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Aperp = (1.1887E-02, 1.7404E-02, 1.9321E-02, 1.2004E-02, 1.7587E-02, 7.7431E-03, 8.3451E-04, 1.8517E-02, 9.8989E-03, 2.3793E-02, 1.9492E-02, 2.8447E-03, 1.1063E-03, 2.7089E-03, 2.2001E-03, 2.1377E-03, 1.4608E-04, 1.9587E-02, 1.2143E-02, 1.0542E-02, 1.4036E-02, 1.8883E-02, 8.7644E-03, 1.1623E-02, 1.8049E-02, 2.2608E-02, 1.1753E-02, 3.1123E-03, 9.1809E-03, 2.7292E-03, 2.5764E-02, 4.6369E-03, 4.3314E-03, 1.9146E-02, 2.5029E-02, 3.3745E-03, 5.6115E-03, 2.3387E-02, 1.3644E-02, 5.4606E-03, 8.7341E-03, 2.4385E-02, 1.1533E-02, 1.8957E-02, 1.2521E-02, 2.4878E-02, 4.8862E-03, 1.4414E-02, 1.7277E-02, 1.5097E-02, 1.2795E-02, 1.9273E-02, 1.7168E-03, 2.1860E-02, 1.0790E-02, 1.8070E-02, 2.6011E-02, 8.3261E-03, 4.1701E-03, 1.2864E-03, 2.2896E-02, 1.2435E-03, 1.6418E-02, 2.2489E-02, 2.1519E-02, 4.0586E-03, 2.5829E-02, 1.8759E-02, 1.6047E-02, 7.2725E-03, 2.6564E-02, 1.7631E-02, 2.3149E-02, 1.7578E-02, 1.6326E-02, 2.4588E-02, 2.4444E-02, 6.3069E-04, 1.7771E-02, 2.2368E-04, 2.2289E-02)</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B93" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C93" s="6" t="e">
+        <f t="array" aca="1" ref="C93" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B93&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B93&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D93" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B94" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C94" s="6" t="e">
+        <f t="array" aca="1" ref="C94" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B94&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B94&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D94" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B95" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C95" s="6" t="e">
+        <f t="array" aca="1" ref="C95" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B95&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B95&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D95" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B96" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C96" s="6" t="e">
+        <f t="array" aca="1" ref="C96" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B96&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B96&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D96" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C97" s="6" t="e">
+        <f t="array" aca="1" ref="C97" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B97&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B97&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D97" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C98" s="6" t="e">
+        <f t="array" aca="1" ref="C98" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B98&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B98&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D98" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C99" s="6" t="e">
+        <f t="array" aca="1" ref="C99" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B99&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B99&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D99" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C100" s="6" t="e">
+        <f t="array" aca="1" ref="C100" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B100&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B100&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D100" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B101" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C101" s="6" t="e">
+        <f t="array" aca="1" ref="C101" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B101&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B101&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D101" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B102" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C102" s="6" t="e">
+        <f t="array" aca="1" ref="C102" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B102&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B102&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D102" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B103" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C103" s="6" t="e">
+        <f t="array" aca="1" ref="C103" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B103&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B103&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D103" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B104" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C104" s="6" t="e">
+        <f t="array" aca="1" ref="C104" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B104&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B104&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D104" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B105" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C105" s="6" t="e">
+        <f t="array" aca="1" ref="C105" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B105&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B105&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D105" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B106" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C106" s="6" t="e">
+        <f t="array" aca="1" ref="C106" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B106&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B106&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D106" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B107" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C107" s="6" t="e">
+        <f t="array" aca="1" ref="C107" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B107&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B107&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D107" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B108" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C108" s="6" t="e">
+        <f t="array" aca="1" ref="C108" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B108&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B108&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D108" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B109" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C109" s="6" t="e">
+        <f t="array" aca="1" ref="C109" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B109&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B109&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D109" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B110" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C110" s="6" t="e">
+        <f t="array" aca="1" ref="C110" ca="1">_xlfn.CONCAT(IF(INDIRECT("tbl7_5["&amp;B110&amp;"]")&lt;&gt;"",TEXT(INDIRECT("tbl7_5["&amp;B110&amp;"]"),"0.0000E+00")&amp;", ",""))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D110" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
